--- a/2015_부문분류표(확인).xlsx
+++ b/2015_부문분류표(확인).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A9D62-813A-2B4C-9BAB-A941FB76530F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F72EE5-5D1F-7A41-B2D7-749F8B0BD031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,22 @@
     <definedName name="Z_D1C344E6_E0A3_4167_98C4_6AA9A582FA84_.wvu.PrintTitles" localSheetId="1" hidden="1">산업분류표!$2:$3</definedName>
     <definedName name="Z_D1C344E6_E0A3_4167_98C4_6AA9A582FA84_.wvu.PrintTitles" localSheetId="0" hidden="1">상품분류표!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="bok - 사용자 보기" guid="{D1C344E6-E0A3-4167-98C4-6AA9A582FA84}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="768" activeSheetId="2"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -7631,7 +7643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7747,6 +7759,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -8550,7 +8571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8558,44 +8579,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -8631,119 +8652,107 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8758,7 +8767,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8779,7 +8788,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8800,7 +8809,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8821,7 +8830,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8842,7 +8851,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8851,19 +8860,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -8875,43 +8922,24 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9204,20 +9232,20 @@
   <dimension ref="A1:O412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="52" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="52" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="52" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="52" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" style="14" customWidth="1"/>
     <col min="10" max="10" width="9" style="14" customWidth="1"/>
     <col min="11" max="11" width="9" style="14"/>
@@ -9249,7 +9277,7 @@
       <c r="G1" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="53" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -9265,7 +9293,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="30"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="58"/>
+      <c r="H2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -9279,7 +9307,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="30"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="58"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:15" ht="13.5" customHeight="1">
       <c r="A4" s="2" t="s">
@@ -9293,7 +9321,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="30"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="58"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -9311,7 +9339,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="30"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="58"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -9325,7 +9353,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="30"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="58"/>
+      <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -9343,7 +9371,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="30"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="58"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1">
       <c r="A8" s="2" t="s">
@@ -9357,7 +9385,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="30"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="58"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -9371,7 +9399,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="30"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -9385,7 +9413,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="30"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="58"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -9399,7 +9427,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="30"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="58"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -9413,8 +9441,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="30"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="58"/>
-      <c r="O12" s="102">
+      <c r="H12" s="54"/>
+      <c r="O12" s="92">
         <v>44586</v>
       </c>
     </row>
@@ -9430,7 +9458,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="36"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="58"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:15" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -9452,7 +9480,7 @@
         <v>1148</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="58"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -9466,7 +9494,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="30"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="58"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -9484,8 +9512,8 @@
       <c r="E16" s="8"/>
       <c r="F16" s="30"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="58"/>
-      <c r="L16" s="102"/>
+      <c r="H16" s="54"/>
+      <c r="L16" s="92"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -9499,7 +9527,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="30"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="58"/>
+      <c r="H17" s="54"/>
       <c r="L17" s="14" t="s">
         <v>2199</v>
       </c>
@@ -9516,7 +9544,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="36"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="58"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -9538,7 +9566,7 @@
         <v>269</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="58"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:12" ht="13.5" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -9552,7 +9580,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="30"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="58"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:12" ht="13.5" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -9566,7 +9594,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="30"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="58"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="1:12" ht="13.5" customHeight="1">
       <c r="A22" s="2" t="s">
@@ -9580,7 +9608,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="36"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="58"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:12" ht="13.5" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -9602,7 +9630,7 @@
         <v>270</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="58"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="1:12" ht="13.5" customHeight="1">
       <c r="A24" s="2" t="s">
@@ -9616,7 +9644,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="36"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="58"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:12" ht="13.5" customHeight="1">
       <c r="A25" s="2" t="s">
@@ -9638,7 +9666,7 @@
         <v>279</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="58"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:12" ht="13.5" customHeight="1">
       <c r="A26" s="2" t="s">
@@ -9662,7 +9690,7 @@
       <c r="G26" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="53" t="s">
         <v>1149</v>
       </c>
       <c r="L26" s="14" t="s">
@@ -9681,7 +9709,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="30"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="58"/>
+      <c r="H27" s="54"/>
       <c r="L27" s="14" t="s">
         <v>2201</v>
       </c>
@@ -9702,7 +9730,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="30"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="58"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:12" ht="13.5" customHeight="1">
       <c r="A29" s="2" t="s">
@@ -9716,7 +9744,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="36"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="58"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:12" ht="13.5" customHeight="1">
       <c r="A30" s="2" t="s">
@@ -9738,7 +9766,7 @@
         <v>1150</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="58"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" customHeight="1">
       <c r="A31" s="2" t="s">
@@ -9752,7 +9780,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="30"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="58"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" customHeight="1">
       <c r="A32" s="2" t="s">
@@ -9770,7 +9798,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="30"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="58"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1">
       <c r="A33" s="2" t="s">
@@ -9784,7 +9812,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="30"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="58"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
       <c r="A34" s="2" t="s">
@@ -9798,7 +9826,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="36"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="59"/>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1">
       <c r="A35" s="2" t="s">
@@ -9822,7 +9850,7 @@
       <c r="G35" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="H35" s="58" t="s">
+      <c r="H35" s="54" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -9838,7 +9866,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="30"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="58"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -9852,7 +9880,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="30"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="58"/>
+      <c r="H37" s="54"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -9866,7 +9894,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="30"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="58"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -9884,7 +9912,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="30"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="58"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -9898,7 +9926,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="30"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="58"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
@@ -9916,7 +9944,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="30"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="58"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -9930,7 +9958,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="30"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="58"/>
+      <c r="H42" s="54"/>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -9948,7 +9976,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="30"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
+      <c r="H43" s="54"/>
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -9962,7 +9990,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="30"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
+      <c r="H44" s="54"/>
     </row>
     <row r="45" spans="1:8" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -9976,7 +10004,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="30"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -9994,7 +10022,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="30"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="58"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -10008,7 +10036,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="30"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="58"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="1:8" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -10026,7 +10054,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="30"/>
       <c r="G48" s="6"/>
-      <c r="H48" s="58"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -10040,7 +10068,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="30"/>
       <c r="G49" s="6"/>
-      <c r="H49" s="58"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -10058,7 +10086,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="30"/>
       <c r="G50" s="6"/>
-      <c r="H50" s="58"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -10072,7 +10100,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="30"/>
       <c r="G51" s="6"/>
-      <c r="H51" s="58"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -10086,7 +10114,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="30"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="58"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" spans="1:8" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -10100,7 +10128,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="30"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="58"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -10118,7 +10146,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="36"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="58"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -10140,7 +10168,7 @@
         <v>478</v>
       </c>
       <c r="G55" s="6"/>
-      <c r="H55" s="58"/>
+      <c r="H55" s="54"/>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1">
       <c r="A56" s="2" t="s">
@@ -10154,7 +10182,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="30"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="58"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1">
       <c r="A57" s="2" t="s">
@@ -10168,7 +10196,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="30"/>
       <c r="G57" s="6"/>
-      <c r="H57" s="58"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1">
       <c r="A58" s="2" t="s">
@@ -10182,7 +10210,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="30"/>
       <c r="G58" s="6"/>
-      <c r="H58" s="58"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1">
       <c r="A59" s="2" t="s">
@@ -10200,7 +10228,7 @@
       <c r="E59" s="9"/>
       <c r="F59" s="36"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="58"/>
+      <c r="H59" s="54"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -10222,7 +10250,7 @@
         <v>1156</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="H60" s="59"/>
+      <c r="H60" s="55"/>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1">
       <c r="A61" s="2" t="s">
@@ -10246,7 +10274,7 @@
       <c r="G61" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="H61" s="58" t="s">
+      <c r="H61" s="54" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -10262,7 +10290,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="30"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="58"/>
+      <c r="H62" s="54"/>
     </row>
     <row r="63" spans="1:8" ht="13.5" customHeight="1">
       <c r="A63" s="2" t="s">
@@ -10280,7 +10308,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="30"/>
       <c r="G63" s="6"/>
-      <c r="H63" s="58"/>
+      <c r="H63" s="54"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" customHeight="1">
       <c r="A64" s="2" t="s">
@@ -10294,7 +10322,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="30"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="58"/>
+      <c r="H64" s="54"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="2" t="s">
@@ -10308,7 +10336,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="30"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="58"/>
+      <c r="H65" s="54"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="2" t="s">
@@ -10326,7 +10354,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="30"/>
       <c r="G66" s="6"/>
-      <c r="H66" s="58"/>
+      <c r="H66" s="54"/>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="2" t="s">
@@ -10344,7 +10372,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="30"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="58"/>
+      <c r="H67" s="54"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
       <c r="A68" s="2" t="s">
@@ -10358,7 +10386,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="30"/>
       <c r="G68" s="6"/>
-      <c r="H68" s="58"/>
+      <c r="H68" s="54"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="2" t="s">
@@ -10372,7 +10400,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="30"/>
       <c r="G69" s="6"/>
-      <c r="H69" s="58"/>
+      <c r="H69" s="54"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="2" t="s">
@@ -10390,7 +10418,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="30"/>
       <c r="G70" s="6"/>
-      <c r="H70" s="58"/>
+      <c r="H70" s="54"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="2" t="s">
@@ -10404,7 +10432,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="30"/>
       <c r="G71" s="6"/>
-      <c r="H71" s="58"/>
+      <c r="H71" s="54"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="2" t="s">
@@ -10418,7 +10446,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="30"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="58"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
       <c r="A73" s="2" t="s">
@@ -10432,7 +10460,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="30"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="58"/>
+      <c r="H73" s="54"/>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
       <c r="A74" s="2" t="s">
@@ -10446,7 +10474,7 @@
       <c r="E74" s="9"/>
       <c r="F74" s="36"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="58"/>
+      <c r="H74" s="54"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="2" t="s">
@@ -10468,7 +10496,7 @@
         <v>516</v>
       </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="58"/>
+      <c r="H75" s="54"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
       <c r="A76" s="2" t="s">
@@ -10482,7 +10510,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="30"/>
       <c r="G76" s="6"/>
-      <c r="H76" s="58"/>
+      <c r="H76" s="54"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
       <c r="A77" s="2" t="s">
@@ -10496,7 +10524,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="30"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="58"/>
+      <c r="H77" s="54"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
       <c r="A78" s="2" t="s">
@@ -10510,7 +10538,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="30"/>
       <c r="G78" s="6"/>
-      <c r="H78" s="58"/>
+      <c r="H78" s="54"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
       <c r="A79" s="2" t="s">
@@ -10524,7 +10552,7 @@
       <c r="E79" s="9"/>
       <c r="F79" s="36"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="59"/>
+      <c r="H79" s="55"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
       <c r="A80" s="2" t="s">
@@ -10548,7 +10576,7 @@
       <c r="G80" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="H80" s="58" t="s">
+      <c r="H80" s="54" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10564,7 +10592,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="30"/>
       <c r="G81" s="6"/>
-      <c r="H81" s="58"/>
+      <c r="H81" s="54"/>
     </row>
     <row r="82" spans="1:8" ht="13.5" customHeight="1">
       <c r="A82" s="2" t="s">
@@ -10578,7 +10606,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="30"/>
       <c r="G82" s="6"/>
-      <c r="H82" s="58"/>
+      <c r="H82" s="54"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" customHeight="1">
       <c r="A83" s="2" t="s">
@@ -10596,7 +10624,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="30"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="58"/>
+      <c r="H83" s="54"/>
     </row>
     <row r="84" spans="1:8" ht="13.5" customHeight="1">
       <c r="A84" s="2" t="s">
@@ -10610,7 +10638,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="30"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="58"/>
+      <c r="H84" s="54"/>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1">
       <c r="A85" s="2" t="s">
@@ -10624,7 +10652,7 @@
       <c r="E85" s="9"/>
       <c r="F85" s="36"/>
       <c r="G85" s="6"/>
-      <c r="H85" s="58"/>
+      <c r="H85" s="54"/>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1">
       <c r="A86" s="2" t="s">
@@ -10646,7 +10674,7 @@
         <v>537</v>
       </c>
       <c r="G86" s="6"/>
-      <c r="H86" s="58"/>
+      <c r="H86" s="54"/>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1">
       <c r="A87" s="2" t="s">
@@ -10664,7 +10692,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="30"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="58"/>
+      <c r="H87" s="54"/>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1">
       <c r="A88" s="2" t="s">
@@ -10678,7 +10706,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="30"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="58"/>
+      <c r="H88" s="54"/>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1">
       <c r="A89" s="2" t="s">
@@ -10696,7 +10724,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="30"/>
       <c r="G89" s="6"/>
-      <c r="H89" s="58"/>
+      <c r="H89" s="54"/>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1">
       <c r="A90" s="2" t="s">
@@ -10710,7 +10738,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="30"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="58"/>
+      <c r="H90" s="54"/>
     </row>
     <row r="91" spans="1:8" ht="13.5" customHeight="1">
       <c r="A91" s="2" t="s">
@@ -10724,7 +10752,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="30"/>
       <c r="G91" s="6"/>
-      <c r="H91" s="58"/>
+      <c r="H91" s="54"/>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1">
       <c r="A92" s="2" t="s">
@@ -10738,7 +10766,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="30"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="58"/>
+      <c r="H92" s="54"/>
     </row>
     <row r="93" spans="1:8" ht="13.5" customHeight="1">
       <c r="A93" s="2" t="s">
@@ -10752,29 +10780,29 @@
       <c r="E93" s="9"/>
       <c r="F93" s="36"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="58"/>
-    </row>
-    <row r="94" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A94" s="103" t="s">
+      <c r="H93" s="54"/>
+    </row>
+    <row r="94" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A94" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="B94" s="104" t="s">
+      <c r="B94" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="105" t="s">
+      <c r="C94" s="95" t="s">
         <v>549</v>
       </c>
-      <c r="D94" s="106" t="s">
+      <c r="D94" s="96" t="s">
         <v>550</v>
       </c>
-      <c r="E94" s="105" t="s">
+      <c r="E94" s="95" t="s">
         <v>551</v>
       </c>
-      <c r="F94" s="106" t="s">
+      <c r="F94" s="96" t="s">
         <v>552</v>
       </c>
-      <c r="G94" s="107"/>
-      <c r="H94" s="108"/>
+      <c r="G94" s="97"/>
+      <c r="H94" s="98"/>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1">
       <c r="A95" s="2" t="s">
@@ -10798,7 +10826,7 @@
       <c r="G95" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="H95" s="58" t="s">
+      <c r="H95" s="54" t="s">
         <v>557</v>
       </c>
     </row>
@@ -10814,7 +10842,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="30"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="58"/>
+      <c r="H96" s="54"/>
     </row>
     <row r="97" spans="1:8" ht="13.5" customHeight="1">
       <c r="A97" s="2" t="s">
@@ -10832,7 +10860,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="30"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="58"/>
+      <c r="H97" s="54"/>
     </row>
     <row r="98" spans="1:8" ht="13.5" customHeight="1">
       <c r="A98" s="2" t="s">
@@ -10846,7 +10874,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="30"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="58"/>
+      <c r="H98" s="54"/>
     </row>
     <row r="99" spans="1:8" ht="13.5" customHeight="1">
       <c r="A99" s="2" t="s">
@@ -10860,7 +10888,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="30"/>
       <c r="G99" s="6"/>
-      <c r="H99" s="58"/>
+      <c r="H99" s="54"/>
     </row>
     <row r="100" spans="1:8" ht="13.5" customHeight="1">
       <c r="A100" s="2" t="s">
@@ -10874,7 +10902,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="30"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="58"/>
+      <c r="H100" s="54"/>
     </row>
     <row r="101" spans="1:8" ht="13.5" customHeight="1">
       <c r="A101" s="2" t="s">
@@ -10888,7 +10916,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="30"/>
       <c r="G101" s="6"/>
-      <c r="H101" s="58"/>
+      <c r="H101" s="54"/>
     </row>
     <row r="102" spans="1:8" ht="13.5" customHeight="1">
       <c r="A102" s="2" t="s">
@@ -10902,7 +10930,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="30"/>
       <c r="G102" s="6"/>
-      <c r="H102" s="58"/>
+      <c r="H102" s="54"/>
     </row>
     <row r="103" spans="1:8" ht="13.5" customHeight="1">
       <c r="A103" s="2" t="s">
@@ -10916,7 +10944,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="30"/>
       <c r="G103" s="6"/>
-      <c r="H103" s="58"/>
+      <c r="H103" s="54"/>
     </row>
     <row r="104" spans="1:8" ht="13.5" customHeight="1">
       <c r="A104" s="2" t="s">
@@ -10930,7 +10958,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="30"/>
       <c r="G104" s="6"/>
-      <c r="H104" s="58"/>
+      <c r="H104" s="54"/>
     </row>
     <row r="105" spans="1:8" ht="13.5" customHeight="1">
       <c r="A105" s="2" t="s">
@@ -10948,7 +10976,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="30"/>
       <c r="G105" s="6"/>
-      <c r="H105" s="58"/>
+      <c r="H105" s="54"/>
     </row>
     <row r="106" spans="1:8" ht="13.5" customHeight="1">
       <c r="A106" s="2" t="s">
@@ -10962,7 +10990,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="36"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="59"/>
+      <c r="H106" s="55"/>
     </row>
     <row r="107" spans="1:8" ht="13.5" customHeight="1">
       <c r="A107" s="2" t="s">
@@ -10986,7 +11014,7 @@
       <c r="G107" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H107" s="58" t="s">
+      <c r="H107" s="54" t="s">
         <v>580</v>
       </c>
     </row>
@@ -11002,7 +11030,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="30"/>
       <c r="G108" s="6"/>
-      <c r="H108" s="58"/>
+      <c r="H108" s="54"/>
     </row>
     <row r="109" spans="1:8" ht="13.5" customHeight="1">
       <c r="A109" s="2" t="s">
@@ -11016,7 +11044,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="30"/>
       <c r="G109" s="6"/>
-      <c r="H109" s="58"/>
+      <c r="H109" s="54"/>
     </row>
     <row r="110" spans="1:8" ht="13.5" customHeight="1">
       <c r="A110" s="2" t="s">
@@ -11030,7 +11058,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="30"/>
       <c r="G110" s="6"/>
-      <c r="H110" s="58"/>
+      <c r="H110" s="54"/>
     </row>
     <row r="111" spans="1:8" ht="13.5" customHeight="1">
       <c r="A111" s="2" t="s">
@@ -11048,7 +11076,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="30"/>
       <c r="G111" s="6"/>
-      <c r="H111" s="58"/>
+      <c r="H111" s="54"/>
     </row>
     <row r="112" spans="1:8" ht="13.5" customHeight="1">
       <c r="A112" s="2" t="s">
@@ -11062,7 +11090,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="30"/>
       <c r="G112" s="6"/>
-      <c r="H112" s="58"/>
+      <c r="H112" s="54"/>
     </row>
     <row r="113" spans="1:8" ht="13.5" customHeight="1">
       <c r="A113" s="2" t="s">
@@ -11076,7 +11104,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="36"/>
       <c r="G113" s="6"/>
-      <c r="H113" s="58"/>
+      <c r="H113" s="54"/>
     </row>
     <row r="114" spans="1:8" ht="13.5" customHeight="1">
       <c r="A114" s="2" t="s">
@@ -11098,7 +11126,7 @@
         <v>267</v>
       </c>
       <c r="G114" s="6"/>
-      <c r="H114" s="58"/>
+      <c r="H114" s="54"/>
     </row>
     <row r="115" spans="1:8" ht="13.5" customHeight="1">
       <c r="A115" s="2" t="s">
@@ -11112,7 +11140,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="36"/>
       <c r="G115" s="6"/>
-      <c r="H115" s="58"/>
+      <c r="H115" s="54"/>
     </row>
     <row r="116" spans="1:8" ht="13.5" customHeight="1">
       <c r="A116" s="2" t="s">
@@ -11134,7 +11162,7 @@
         <v>1168</v>
       </c>
       <c r="G116" s="6"/>
-      <c r="H116" s="58"/>
+      <c r="H116" s="54"/>
     </row>
     <row r="117" spans="1:8" ht="13.5" customHeight="1">
       <c r="A117" s="2" t="s">
@@ -11156,7 +11184,7 @@
         <v>90</v>
       </c>
       <c r="G117" s="6"/>
-      <c r="H117" s="58"/>
+      <c r="H117" s="54"/>
     </row>
     <row r="118" spans="1:8" ht="13.5" customHeight="1">
       <c r="A118" s="2" t="s">
@@ -11178,7 +11206,7 @@
         <v>600</v>
       </c>
       <c r="G118" s="6"/>
-      <c r="H118" s="58"/>
+      <c r="H118" s="54"/>
     </row>
     <row r="119" spans="1:8" ht="13.5" customHeight="1">
       <c r="A119" s="2" t="s">
@@ -11192,7 +11220,7 @@
       <c r="E119" s="9"/>
       <c r="F119" s="36"/>
       <c r="G119" s="6"/>
-      <c r="H119" s="58"/>
+      <c r="H119" s="54"/>
     </row>
     <row r="120" spans="1:8" ht="13.5" customHeight="1">
       <c r="A120" s="2" t="s">
@@ -11214,7 +11242,7 @@
         <v>99</v>
       </c>
       <c r="G120" s="6"/>
-      <c r="H120" s="58"/>
+      <c r="H120" s="54"/>
     </row>
     <row r="121" spans="1:8" ht="13.5" customHeight="1">
       <c r="A121" s="2" t="s">
@@ -11228,7 +11256,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="30"/>
       <c r="G121" s="6"/>
-      <c r="H121" s="58"/>
+      <c r="H121" s="54"/>
     </row>
     <row r="122" spans="1:8" ht="13.5" customHeight="1">
       <c r="A122" s="2" t="s">
@@ -11246,7 +11274,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="30"/>
       <c r="G122" s="6"/>
-      <c r="H122" s="58"/>
+      <c r="H122" s="54"/>
     </row>
     <row r="123" spans="1:8" ht="13.5" customHeight="1">
       <c r="A123" s="2" t="s">
@@ -11260,7 +11288,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="30"/>
       <c r="G123" s="6"/>
-      <c r="H123" s="58"/>
+      <c r="H123" s="54"/>
     </row>
     <row r="124" spans="1:8" ht="13.5" customHeight="1">
       <c r="A124" s="2" t="s">
@@ -11278,7 +11306,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="30"/>
       <c r="G124" s="6"/>
-      <c r="H124" s="58"/>
+      <c r="H124" s="54"/>
     </row>
     <row r="125" spans="1:8" ht="13.5" customHeight="1">
       <c r="A125" s="2" t="s">
@@ -11292,7 +11320,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="30"/>
       <c r="G125" s="6"/>
-      <c r="H125" s="58"/>
+      <c r="H125" s="54"/>
     </row>
     <row r="126" spans="1:8" ht="13.5" customHeight="1">
       <c r="A126" s="2" t="s">
@@ -11306,7 +11334,7 @@
       <c r="E126" s="9"/>
       <c r="F126" s="36"/>
       <c r="G126" s="6"/>
-      <c r="H126" s="58"/>
+      <c r="H126" s="54"/>
     </row>
     <row r="127" spans="1:8" ht="13.5" customHeight="1">
       <c r="A127" s="2" t="s">
@@ -11328,7 +11356,7 @@
         <v>618</v>
       </c>
       <c r="G127" s="6"/>
-      <c r="H127" s="58"/>
+      <c r="H127" s="54"/>
     </row>
     <row r="128" spans="1:8" ht="13.5" customHeight="1">
       <c r="A128" s="2" t="s">
@@ -11346,7 +11374,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="30"/>
       <c r="G128" s="6"/>
-      <c r="H128" s="58"/>
+      <c r="H128" s="54"/>
     </row>
     <row r="129" spans="1:8" ht="13.5" customHeight="1">
       <c r="A129" s="2" t="s">
@@ -11360,7 +11388,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="30"/>
       <c r="G129" s="6"/>
-      <c r="H129" s="58"/>
+      <c r="H129" s="54"/>
     </row>
     <row r="130" spans="1:8" ht="13.5" customHeight="1">
       <c r="A130" s="2" t="s">
@@ -11374,7 +11402,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="30"/>
       <c r="G130" s="6"/>
-      <c r="H130" s="58"/>
+      <c r="H130" s="54"/>
     </row>
     <row r="131" spans="1:8" ht="13.5" customHeight="1">
       <c r="A131" s="2" t="s">
@@ -11388,7 +11416,7 @@
       <c r="E131" s="9"/>
       <c r="F131" s="36"/>
       <c r="G131" s="6"/>
-      <c r="H131" s="58"/>
+      <c r="H131" s="54"/>
     </row>
     <row r="132" spans="1:8" ht="13.5" customHeight="1">
       <c r="A132" s="2" t="s">
@@ -11410,7 +11438,7 @@
         <v>1171</v>
       </c>
       <c r="G132" s="6"/>
-      <c r="H132" s="58"/>
+      <c r="H132" s="54"/>
     </row>
     <row r="133" spans="1:8" ht="13.5" customHeight="1">
       <c r="A133" s="2" t="s">
@@ -11428,7 +11456,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="30"/>
       <c r="G133" s="6"/>
-      <c r="H133" s="58"/>
+      <c r="H133" s="54"/>
     </row>
     <row r="134" spans="1:8" ht="13.5" customHeight="1">
       <c r="A134" s="2" t="s">
@@ -11442,7 +11470,7 @@
       <c r="E134" s="9"/>
       <c r="F134" s="36"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="59"/>
+      <c r="H134" s="55"/>
     </row>
     <row r="135" spans="1:8" ht="13.5" customHeight="1">
       <c r="A135" s="2" t="s">
@@ -11466,7 +11494,7 @@
       <c r="G135" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="H135" s="58" t="s">
+      <c r="H135" s="54" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -11482,7 +11510,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="30"/>
       <c r="G136" s="6"/>
-      <c r="H136" s="58"/>
+      <c r="H136" s="54"/>
     </row>
     <row r="137" spans="1:8" ht="13.5" customHeight="1">
       <c r="A137" s="2" t="s">
@@ -11496,7 +11524,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="30"/>
       <c r="G137" s="6"/>
-      <c r="H137" s="58"/>
+      <c r="H137" s="54"/>
     </row>
     <row r="138" spans="1:8" ht="13.5" customHeight="1">
       <c r="A138" s="2" t="s">
@@ -11510,7 +11538,7 @@
       <c r="E138" s="9"/>
       <c r="F138" s="36"/>
       <c r="G138" s="6"/>
-      <c r="H138" s="58"/>
+      <c r="H138" s="54"/>
     </row>
     <row r="139" spans="1:8" ht="13.5" customHeight="1">
       <c r="A139" s="2" t="s">
@@ -11532,7 +11560,7 @@
         <v>642</v>
       </c>
       <c r="G139" s="6"/>
-      <c r="H139" s="58"/>
+      <c r="H139" s="54"/>
     </row>
     <row r="140" spans="1:8" ht="13.5" customHeight="1">
       <c r="A140" s="2" t="s">
@@ -11546,7 +11574,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="30"/>
       <c r="G140" s="6"/>
-      <c r="H140" s="58"/>
+      <c r="H140" s="54"/>
     </row>
     <row r="141" spans="1:8" ht="13.5" customHeight="1">
       <c r="A141" s="2" t="s">
@@ -11560,7 +11588,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="30"/>
       <c r="G141" s="6"/>
-      <c r="H141" s="58"/>
+      <c r="H141" s="54"/>
     </row>
     <row r="142" spans="1:8" ht="13.5" customHeight="1">
       <c r="A142" s="2" t="s">
@@ -11574,7 +11602,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="30"/>
       <c r="G142" s="6"/>
-      <c r="H142" s="58"/>
+      <c r="H142" s="54"/>
     </row>
     <row r="143" spans="1:8" ht="13.5" customHeight="1">
       <c r="A143" s="2" t="s">
@@ -11592,7 +11620,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="30"/>
       <c r="G143" s="6"/>
-      <c r="H143" s="58"/>
+      <c r="H143" s="54"/>
     </row>
     <row r="144" spans="1:8" ht="13.5" customHeight="1">
       <c r="A144" s="2" t="s">
@@ -11610,7 +11638,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="30"/>
       <c r="G144" s="6"/>
-      <c r="H144" s="58"/>
+      <c r="H144" s="54"/>
     </row>
     <row r="145" spans="1:8" ht="13.5" customHeight="1">
       <c r="A145" s="2" t="s">
@@ -11624,7 +11652,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="30"/>
       <c r="G145" s="6"/>
-      <c r="H145" s="58"/>
+      <c r="H145" s="54"/>
     </row>
     <row r="146" spans="1:8" ht="13.5" customHeight="1">
       <c r="A146" s="2" t="s">
@@ -11642,7 +11670,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="30"/>
       <c r="G146" s="6"/>
-      <c r="H146" s="58"/>
+      <c r="H146" s="54"/>
     </row>
     <row r="147" spans="1:8" ht="13.5" customHeight="1">
       <c r="A147" s="2" t="s">
@@ -11656,7 +11684,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="30"/>
       <c r="G147" s="6"/>
-      <c r="H147" s="58"/>
+      <c r="H147" s="54"/>
     </row>
     <row r="148" spans="1:8" ht="13.5" customHeight="1">
       <c r="A148" s="2" t="s">
@@ -11670,7 +11698,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="30"/>
       <c r="G148" s="6"/>
-      <c r="H148" s="58"/>
+      <c r="H148" s="54"/>
     </row>
     <row r="149" spans="1:8" ht="13.5" customHeight="1">
       <c r="A149" s="2" t="s">
@@ -11684,7 +11712,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="30"/>
       <c r="G149" s="6"/>
-      <c r="H149" s="58"/>
+      <c r="H149" s="54"/>
     </row>
     <row r="150" spans="1:8" ht="13.5" customHeight="1">
       <c r="A150" s="2" t="s">
@@ -11698,7 +11726,7 @@
       <c r="E150" s="9"/>
       <c r="F150" s="36"/>
       <c r="G150" s="7"/>
-      <c r="H150" s="59"/>
+      <c r="H150" s="55"/>
     </row>
     <row r="151" spans="1:8" ht="13.5" customHeight="1">
       <c r="A151" s="2" t="s">
@@ -11722,7 +11750,7 @@
       <c r="G151" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="H151" s="58" t="s">
+      <c r="H151" s="54" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -11738,7 +11766,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="30"/>
       <c r="G152" s="6"/>
-      <c r="H152" s="58"/>
+      <c r="H152" s="54"/>
     </row>
     <row r="153" spans="1:8" ht="13.5" customHeight="1">
       <c r="A153" s="2" t="s">
@@ -11752,7 +11780,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="30"/>
       <c r="G153" s="6"/>
-      <c r="H153" s="58"/>
+      <c r="H153" s="54"/>
     </row>
     <row r="154" spans="1:8" ht="13.5" customHeight="1">
       <c r="A154" s="2" t="s">
@@ -11770,7 +11798,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="30"/>
       <c r="G154" s="6"/>
-      <c r="H154" s="58"/>
+      <c r="H154" s="54"/>
     </row>
     <row r="155" spans="1:8" ht="13.5" customHeight="1">
       <c r="A155" s="2" t="s">
@@ -11784,7 +11812,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="30"/>
       <c r="G155" s="6"/>
-      <c r="H155" s="58"/>
+      <c r="H155" s="54"/>
     </row>
     <row r="156" spans="1:8" ht="13.5" customHeight="1">
       <c r="A156" s="2" t="s">
@@ -11798,7 +11826,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="30"/>
       <c r="G156" s="6"/>
-      <c r="H156" s="58"/>
+      <c r="H156" s="54"/>
     </row>
     <row r="157" spans="1:8" ht="13.5" customHeight="1">
       <c r="A157" s="2" t="s">
@@ -11812,7 +11840,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="30"/>
       <c r="G157" s="6"/>
-      <c r="H157" s="58"/>
+      <c r="H157" s="54"/>
     </row>
     <row r="158" spans="1:8" ht="13.5" customHeight="1">
       <c r="A158" s="2" t="s">
@@ -11826,7 +11854,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="30"/>
       <c r="G158" s="6"/>
-      <c r="H158" s="58"/>
+      <c r="H158" s="54"/>
     </row>
     <row r="159" spans="1:8" ht="13.5" customHeight="1">
       <c r="A159" s="2" t="s">
@@ -11840,7 +11868,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="30"/>
       <c r="G159" s="6"/>
-      <c r="H159" s="58"/>
+      <c r="H159" s="54"/>
     </row>
     <row r="160" spans="1:8" ht="13.5" customHeight="1">
       <c r="A160" s="2" t="s">
@@ -11854,7 +11882,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="30"/>
       <c r="G160" s="6"/>
-      <c r="H160" s="58"/>
+      <c r="H160" s="54"/>
     </row>
     <row r="161" spans="1:8" ht="13.5" customHeight="1">
       <c r="A161" s="2" t="s">
@@ -11872,7 +11900,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="30"/>
       <c r="G161" s="6"/>
-      <c r="H161" s="58"/>
+      <c r="H161" s="54"/>
     </row>
     <row r="162" spans="1:8" ht="13.5" customHeight="1">
       <c r="A162" s="2" t="s">
@@ -11890,7 +11918,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="30"/>
       <c r="G162" s="6"/>
-      <c r="H162" s="58"/>
+      <c r="H162" s="54"/>
     </row>
     <row r="163" spans="1:8" ht="13.5" customHeight="1">
       <c r="A163" s="2" t="s">
@@ -11904,7 +11932,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="36"/>
       <c r="G163" s="6"/>
-      <c r="H163" s="58"/>
+      <c r="H163" s="54"/>
     </row>
     <row r="164" spans="1:8" ht="13.5" customHeight="1">
       <c r="A164" s="2" t="s">
@@ -11926,7 +11954,7 @@
         <v>682</v>
       </c>
       <c r="G164" s="6"/>
-      <c r="H164" s="58"/>
+      <c r="H164" s="54"/>
     </row>
     <row r="165" spans="1:8" ht="13.5" customHeight="1">
       <c r="A165" s="2" t="s">
@@ -11940,7 +11968,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="30"/>
       <c r="G165" s="6"/>
-      <c r="H165" s="58"/>
+      <c r="H165" s="54"/>
     </row>
     <row r="166" spans="1:8" ht="13.5" customHeight="1">
       <c r="A166" s="2" t="s">
@@ -11954,7 +11982,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="30"/>
       <c r="G166" s="6"/>
-      <c r="H166" s="58"/>
+      <c r="H166" s="54"/>
     </row>
     <row r="167" spans="1:8" ht="13.5" customHeight="1">
       <c r="A167" s="2" t="s">
@@ -11968,7 +11996,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="30"/>
       <c r="G167" s="6"/>
-      <c r="H167" s="58"/>
+      <c r="H167" s="54"/>
     </row>
     <row r="168" spans="1:8" ht="13.5" customHeight="1">
       <c r="A168" s="2" t="s">
@@ -11982,7 +12010,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="30"/>
       <c r="G168" s="6"/>
-      <c r="H168" s="58"/>
+      <c r="H168" s="54"/>
     </row>
     <row r="169" spans="1:8" ht="13.5" customHeight="1">
       <c r="A169" s="2" t="s">
@@ -12000,7 +12028,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="30"/>
       <c r="G169" s="6"/>
-      <c r="H169" s="58"/>
+      <c r="H169" s="54"/>
     </row>
     <row r="170" spans="1:8" ht="13.5" customHeight="1">
       <c r="A170" s="2" t="s">
@@ -12014,7 +12042,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="30"/>
       <c r="G170" s="6"/>
-      <c r="H170" s="58"/>
+      <c r="H170" s="54"/>
     </row>
     <row r="171" spans="1:8" ht="13.5" customHeight="1">
       <c r="A171" s="2" t="s">
@@ -12028,7 +12056,7 @@
       <c r="E171" s="9"/>
       <c r="F171" s="36"/>
       <c r="G171" s="6"/>
-      <c r="H171" s="58"/>
+      <c r="H171" s="54"/>
     </row>
     <row r="172" spans="1:8" ht="13.5" customHeight="1">
       <c r="A172" s="2" t="s">
@@ -12050,7 +12078,7 @@
         <v>130</v>
       </c>
       <c r="G172" s="7"/>
-      <c r="H172" s="59"/>
+      <c r="H172" s="55"/>
     </row>
     <row r="173" spans="1:8" ht="13.5" customHeight="1">
       <c r="A173" s="2" t="s">
@@ -12074,7 +12102,7 @@
       <c r="G173" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="H173" s="58" t="s">
+      <c r="H173" s="54" t="s">
         <v>1248</v>
       </c>
     </row>
@@ -12090,7 +12118,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="30"/>
       <c r="G174" s="6"/>
-      <c r="H174" s="58"/>
+      <c r="H174" s="54"/>
     </row>
     <row r="175" spans="1:8" ht="13.5" customHeight="1">
       <c r="A175" s="2" t="s">
@@ -12104,7 +12132,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="30"/>
       <c r="G175" s="6"/>
-      <c r="H175" s="58"/>
+      <c r="H175" s="54"/>
     </row>
     <row r="176" spans="1:8" ht="13.5" customHeight="1">
       <c r="A176" s="2" t="s">
@@ -12118,7 +12146,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="30"/>
       <c r="G176" s="6"/>
-      <c r="H176" s="58"/>
+      <c r="H176" s="54"/>
     </row>
     <row r="177" spans="1:8" ht="13.5" customHeight="1">
       <c r="A177" s="2" t="s">
@@ -12136,7 +12164,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="30"/>
       <c r="G177" s="6"/>
-      <c r="H177" s="58"/>
+      <c r="H177" s="54"/>
     </row>
     <row r="178" spans="1:8" ht="13.5" customHeight="1">
       <c r="A178" s="2" t="s">
@@ -12150,7 +12178,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="30"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="58"/>
+      <c r="H178" s="54"/>
     </row>
     <row r="179" spans="1:8" ht="13.5" customHeight="1">
       <c r="A179" s="2" t="s">
@@ -12168,7 +12196,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="30"/>
       <c r="G179" s="6"/>
-      <c r="H179" s="58"/>
+      <c r="H179" s="54"/>
     </row>
     <row r="180" spans="1:8" ht="13.5" customHeight="1">
       <c r="A180" s="2" t="s">
@@ -12182,7 +12210,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="30"/>
       <c r="G180" s="6"/>
-      <c r="H180" s="58"/>
+      <c r="H180" s="54"/>
     </row>
     <row r="181" spans="1:8" ht="13.5" customHeight="1">
       <c r="A181" s="2" t="s">
@@ -12200,7 +12228,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="30"/>
       <c r="G181" s="6"/>
-      <c r="H181" s="58"/>
+      <c r="H181" s="54"/>
     </row>
     <row r="182" spans="1:8" ht="13.5" customHeight="1">
       <c r="A182" s="2" t="s">
@@ -12214,7 +12242,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="30"/>
       <c r="G182" s="6"/>
-      <c r="H182" s="58"/>
+      <c r="H182" s="54"/>
     </row>
     <row r="183" spans="1:8" ht="13.5" customHeight="1">
       <c r="A183" s="2" t="s">
@@ -12228,7 +12256,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="30"/>
       <c r="G183" s="6"/>
-      <c r="H183" s="58"/>
+      <c r="H183" s="54"/>
     </row>
     <row r="184" spans="1:8" ht="13.5" customHeight="1">
       <c r="A184" s="2" t="s">
@@ -12242,7 +12270,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="30"/>
       <c r="G184" s="6"/>
-      <c r="H184" s="58"/>
+      <c r="H184" s="54"/>
     </row>
     <row r="185" spans="1:8" ht="13.5" customHeight="1">
       <c r="A185" s="2" t="s">
@@ -12256,7 +12284,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="30"/>
       <c r="G185" s="6"/>
-      <c r="H185" s="58"/>
+      <c r="H185" s="54"/>
     </row>
     <row r="186" spans="1:8" ht="13.5" customHeight="1">
       <c r="A186" s="2" t="s">
@@ -12270,7 +12298,7 @@
       <c r="E186" s="9"/>
       <c r="F186" s="36"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="59"/>
+      <c r="H186" s="55"/>
     </row>
     <row r="187" spans="1:8" ht="13.5" customHeight="1">
       <c r="A187" s="2" t="s">
@@ -12294,7 +12322,7 @@
       <c r="G187" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="H187" s="58" t="s">
+      <c r="H187" s="54" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12310,7 +12338,7 @@
       <c r="E188" s="9"/>
       <c r="F188" s="36"/>
       <c r="G188" s="6"/>
-      <c r="H188" s="58"/>
+      <c r="H188" s="54"/>
     </row>
     <row r="189" spans="1:8" ht="13.5" customHeight="1">
       <c r="A189" s="2" t="s">
@@ -12332,7 +12360,7 @@
         <v>725</v>
       </c>
       <c r="G189" s="6"/>
-      <c r="H189" s="58"/>
+      <c r="H189" s="54"/>
     </row>
     <row r="190" spans="1:8" ht="13.5" customHeight="1">
       <c r="A190" s="2" t="s">
@@ -12346,7 +12374,7 @@
       <c r="E190" s="9"/>
       <c r="F190" s="36"/>
       <c r="G190" s="6"/>
-      <c r="H190" s="58"/>
+      <c r="H190" s="54"/>
     </row>
     <row r="191" spans="1:8" ht="13.5" customHeight="1">
       <c r="A191" s="2" t="s">
@@ -12368,7 +12396,7 @@
         <v>170</v>
       </c>
       <c r="G191" s="6"/>
-      <c r="H191" s="58"/>
+      <c r="H191" s="54"/>
     </row>
     <row r="192" spans="1:8" ht="13.5" customHeight="1">
       <c r="A192" s="2" t="s">
@@ -12386,7 +12414,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="30"/>
       <c r="G192" s="6"/>
-      <c r="H192" s="58"/>
+      <c r="H192" s="54"/>
     </row>
     <row r="193" spans="1:8" ht="13.5" customHeight="1">
       <c r="A193" s="2" t="s">
@@ -12400,7 +12428,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="36"/>
       <c r="G193" s="6"/>
-      <c r="H193" s="58"/>
+      <c r="H193" s="54"/>
     </row>
     <row r="194" spans="1:8" ht="13.5" customHeight="1">
       <c r="A194" s="2" t="s">
@@ -12422,7 +12450,7 @@
         <v>1182</v>
       </c>
       <c r="G194" s="6"/>
-      <c r="H194" s="58"/>
+      <c r="H194" s="54"/>
     </row>
     <row r="195" spans="1:8" ht="13.5" customHeight="1">
       <c r="A195" s="2" t="s">
@@ -12436,7 +12464,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="30"/>
       <c r="G195" s="6"/>
-      <c r="H195" s="58"/>
+      <c r="H195" s="54"/>
     </row>
     <row r="196" spans="1:8" ht="13.5" customHeight="1">
       <c r="A196" s="2" t="s">
@@ -12450,29 +12478,29 @@
       <c r="E196" s="9"/>
       <c r="F196" s="36"/>
       <c r="G196" s="6"/>
-      <c r="H196" s="58"/>
-    </row>
-    <row r="197" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A197" s="103" t="s">
+      <c r="H196" s="54"/>
+    </row>
+    <row r="197" spans="1:8" s="115" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A197" s="110" t="s">
         <v>741</v>
       </c>
-      <c r="B197" s="104" t="s">
+      <c r="B197" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="C197" s="110" t="s">
+      <c r="C197" s="112" t="s">
         <v>742</v>
       </c>
-      <c r="D197" s="111" t="s">
+      <c r="D197" s="65" t="s">
         <v>743</v>
       </c>
-      <c r="E197" s="110" t="s">
+      <c r="E197" s="112" t="s">
         <v>744</v>
       </c>
-      <c r="F197" s="111" t="s">
+      <c r="F197" s="65" t="s">
         <v>1183</v>
       </c>
-      <c r="G197" s="112"/>
-      <c r="H197" s="113"/>
+      <c r="G197" s="113"/>
+      <c r="H197" s="114"/>
     </row>
     <row r="198" spans="1:8" ht="13.5" customHeight="1">
       <c r="A198" s="2" t="s">
@@ -12486,7 +12514,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="30"/>
       <c r="G198" s="6"/>
-      <c r="H198" s="58"/>
+      <c r="H198" s="54"/>
     </row>
     <row r="199" spans="1:8" ht="13.5" customHeight="1">
       <c r="A199" s="2" t="s">
@@ -12500,7 +12528,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="30"/>
       <c r="G199" s="6"/>
-      <c r="H199" s="58"/>
+      <c r="H199" s="54"/>
     </row>
     <row r="200" spans="1:8" ht="13.5" customHeight="1">
       <c r="A200" s="2" t="s">
@@ -12518,7 +12546,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="30"/>
       <c r="G200" s="6"/>
-      <c r="H200" s="58"/>
+      <c r="H200" s="54"/>
     </row>
     <row r="201" spans="1:8" ht="13.5" customHeight="1">
       <c r="A201" s="2" t="s">
@@ -12532,7 +12560,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="30"/>
       <c r="G201" s="6"/>
-      <c r="H201" s="58"/>
+      <c r="H201" s="54"/>
     </row>
     <row r="202" spans="1:8" ht="13.5" customHeight="1">
       <c r="A202" s="2" t="s">
@@ -12546,29 +12574,29 @@
       <c r="E202" s="9"/>
       <c r="F202" s="36"/>
       <c r="G202" s="6"/>
-      <c r="H202" s="58"/>
-    </row>
-    <row r="203" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A203" s="103" t="s">
+      <c r="H202" s="54"/>
+    </row>
+    <row r="203" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A203" s="93" t="s">
         <v>752</v>
       </c>
-      <c r="B203" s="104" t="s">
+      <c r="B203" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="C203" s="110" t="s">
+      <c r="C203" s="100" t="s">
         <v>753</v>
       </c>
-      <c r="D203" s="111" t="s">
+      <c r="D203" s="101" t="s">
         <v>754</v>
       </c>
-      <c r="E203" s="110" t="s">
+      <c r="E203" s="100" t="s">
         <v>755</v>
       </c>
-      <c r="F203" s="111" t="s">
+      <c r="F203" s="101" t="s">
         <v>756</v>
       </c>
-      <c r="G203" s="112"/>
-      <c r="H203" s="113"/>
+      <c r="G203" s="102"/>
+      <c r="H203" s="103"/>
     </row>
     <row r="204" spans="1:8" ht="13.5" customHeight="1">
       <c r="A204" s="2" t="s">
@@ -12582,7 +12610,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="30"/>
       <c r="G204" s="6"/>
-      <c r="H204" s="58"/>
+      <c r="H204" s="54"/>
     </row>
     <row r="205" spans="1:8" ht="13.5" customHeight="1">
       <c r="A205" s="2" t="s">
@@ -12596,7 +12624,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="30"/>
       <c r="G205" s="6"/>
-      <c r="H205" s="58"/>
+      <c r="H205" s="54"/>
     </row>
     <row r="206" spans="1:8" ht="13.5" customHeight="1">
       <c r="A206" s="2" t="s">
@@ -12614,7 +12642,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="30"/>
       <c r="G206" s="6"/>
-      <c r="H206" s="58"/>
+      <c r="H206" s="54"/>
     </row>
     <row r="207" spans="1:8" ht="13.5" customHeight="1">
       <c r="A207" s="2" t="s">
@@ -12628,7 +12656,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="30"/>
       <c r="G207" s="6"/>
-      <c r="H207" s="58"/>
+      <c r="H207" s="54"/>
     </row>
     <row r="208" spans="1:8" ht="13.5" customHeight="1">
       <c r="A208" s="2" t="s">
@@ -12642,7 +12670,7 @@
       <c r="E208" s="9"/>
       <c r="F208" s="36"/>
       <c r="G208" s="7"/>
-      <c r="H208" s="59"/>
+      <c r="H208" s="55"/>
     </row>
     <row r="209" spans="1:8" ht="13.5" customHeight="1">
       <c r="A209" s="2" t="s">
@@ -12666,7 +12694,7 @@
       <c r="G209" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="H209" s="58" t="s">
+      <c r="H209" s="54" t="s">
         <v>768</v>
       </c>
     </row>
@@ -12686,7 +12714,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="30"/>
       <c r="G210" s="6"/>
-      <c r="H210" s="58"/>
+      <c r="H210" s="54"/>
     </row>
     <row r="211" spans="1:8" ht="13.5" customHeight="1">
       <c r="A211" s="2" t="s">
@@ -12700,7 +12728,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="30"/>
       <c r="G211" s="6"/>
-      <c r="H211" s="58"/>
+      <c r="H211" s="54"/>
     </row>
     <row r="212" spans="1:8" ht="13.5" customHeight="1">
       <c r="A212" s="2" t="s">
@@ -12714,7 +12742,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="30"/>
       <c r="G212" s="6"/>
-      <c r="H212" s="58"/>
+      <c r="H212" s="54"/>
     </row>
     <row r="213" spans="1:8" ht="13.5" customHeight="1">
       <c r="A213" s="2" t="s">
@@ -12728,7 +12756,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="30"/>
       <c r="G213" s="6"/>
-      <c r="H213" s="58"/>
+      <c r="H213" s="54"/>
     </row>
     <row r="214" spans="1:8" ht="13.5" customHeight="1">
       <c r="A214" s="2" t="s">
@@ -12746,7 +12774,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="30"/>
       <c r="G214" s="6"/>
-      <c r="H214" s="58"/>
+      <c r="H214" s="54"/>
     </row>
     <row r="215" spans="1:8" ht="13.5" customHeight="1">
       <c r="A215" s="2" t="s">
@@ -12764,7 +12792,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="30"/>
       <c r="G215" s="6"/>
-      <c r="H215" s="58"/>
+      <c r="H215" s="54"/>
     </row>
     <row r="216" spans="1:8" ht="13.5" customHeight="1">
       <c r="A216" s="2" t="s">
@@ -12782,7 +12810,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="30"/>
       <c r="G216" s="6"/>
-      <c r="H216" s="58"/>
+      <c r="H216" s="54"/>
     </row>
     <row r="217" spans="1:8" ht="13.5" customHeight="1">
       <c r="A217" s="2" t="s">
@@ -12796,7 +12824,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="30"/>
       <c r="G217" s="6"/>
-      <c r="H217" s="58"/>
+      <c r="H217" s="54"/>
     </row>
     <row r="218" spans="1:8" ht="13.5" customHeight="1">
       <c r="A218" s="2" t="s">
@@ -12810,7 +12838,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="30"/>
       <c r="G218" s="6"/>
-      <c r="H218" s="58"/>
+      <c r="H218" s="54"/>
     </row>
     <row r="219" spans="1:8" ht="13.5" customHeight="1">
       <c r="A219" s="2" t="s">
@@ -12828,7 +12856,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="30"/>
       <c r="G219" s="6"/>
-      <c r="H219" s="58"/>
+      <c r="H219" s="54"/>
     </row>
     <row r="220" spans="1:8" ht="13.5" customHeight="1">
       <c r="A220" s="2" t="s">
@@ -12842,7 +12870,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="30"/>
       <c r="G220" s="6"/>
-      <c r="H220" s="58"/>
+      <c r="H220" s="54"/>
     </row>
     <row r="221" spans="1:8" ht="13.5" customHeight="1">
       <c r="A221" s="2" t="s">
@@ -12856,7 +12884,7 @@
       <c r="E221" s="9"/>
       <c r="F221" s="36"/>
       <c r="G221" s="7"/>
-      <c r="H221" s="59"/>
+      <c r="H221" s="55"/>
     </row>
     <row r="222" spans="1:8" ht="13.5" customHeight="1">
       <c r="A222" s="2" t="s">
@@ -12880,7 +12908,7 @@
       <c r="G222" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="H222" s="58" t="s">
+      <c r="H222" s="54" t="s">
         <v>794</v>
       </c>
     </row>
@@ -12900,7 +12928,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="30"/>
       <c r="G223" s="6"/>
-      <c r="H223" s="58"/>
+      <c r="H223" s="54"/>
     </row>
     <row r="224" spans="1:8" ht="13.5" customHeight="1">
       <c r="A224" s="2" t="s">
@@ -12918,7 +12946,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="30"/>
       <c r="G224" s="6"/>
-      <c r="H224" s="58"/>
+      <c r="H224" s="54"/>
     </row>
     <row r="225" spans="1:8" ht="13.5" customHeight="1">
       <c r="A225" s="2" t="s">
@@ -12932,7 +12960,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="30"/>
       <c r="G225" s="6"/>
-      <c r="H225" s="58"/>
+      <c r="H225" s="54"/>
     </row>
     <row r="226" spans="1:8" ht="13.5" customHeight="1">
       <c r="A226" s="2" t="s">
@@ -12950,7 +12978,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="30"/>
       <c r="G226" s="6"/>
-      <c r="H226" s="58"/>
+      <c r="H226" s="54"/>
     </row>
     <row r="227" spans="1:8" ht="13.5" customHeight="1">
       <c r="A227" s="2" t="s">
@@ -12968,7 +12996,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="30"/>
       <c r="G227" s="6"/>
-      <c r="H227" s="58"/>
+      <c r="H227" s="54"/>
     </row>
     <row r="228" spans="1:8" ht="13.5" customHeight="1">
       <c r="A228" s="2" t="s">
@@ -12982,7 +13010,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="30"/>
       <c r="G228" s="6"/>
-      <c r="H228" s="58"/>
+      <c r="H228" s="54"/>
     </row>
     <row r="229" spans="1:8" ht="13.5" customHeight="1">
       <c r="A229" s="2" t="s">
@@ -13000,7 +13028,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="30"/>
       <c r="G229" s="6"/>
-      <c r="H229" s="58"/>
+      <c r="H229" s="54"/>
     </row>
     <row r="230" spans="1:8" ht="13.5" customHeight="1">
       <c r="A230" s="2" t="s">
@@ -13014,7 +13042,7 @@
       <c r="E230" s="9"/>
       <c r="F230" s="36"/>
       <c r="G230" s="6"/>
-      <c r="H230" s="58"/>
+      <c r="H230" s="54"/>
     </row>
     <row r="231" spans="1:8" ht="13.5" customHeight="1">
       <c r="A231" s="2" t="s">
@@ -13036,7 +13064,7 @@
         <v>1187</v>
       </c>
       <c r="G231" s="6"/>
-      <c r="H231" s="58"/>
+      <c r="H231" s="54"/>
     </row>
     <row r="232" spans="1:8" ht="13.5" customHeight="1">
       <c r="A232" s="2" t="s">
@@ -13050,7 +13078,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="30"/>
       <c r="G232" s="6"/>
-      <c r="H232" s="58"/>
+      <c r="H232" s="54"/>
     </row>
     <row r="233" spans="1:8" ht="13.5" customHeight="1">
       <c r="A233" s="2" t="s">
@@ -13068,7 +13096,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="30"/>
       <c r="G233" s="6"/>
-      <c r="H233" s="58"/>
+      <c r="H233" s="54"/>
     </row>
     <row r="234" spans="1:8" ht="13.5" customHeight="1">
       <c r="A234" s="2" t="s">
@@ -13086,7 +13114,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="30"/>
       <c r="G234" s="6"/>
-      <c r="H234" s="58"/>
+      <c r="H234" s="54"/>
     </row>
     <row r="235" spans="1:8" ht="13.5" customHeight="1">
       <c r="A235" s="2" t="s">
@@ -13104,7 +13132,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="30"/>
       <c r="G235" s="6"/>
-      <c r="H235" s="58"/>
+      <c r="H235" s="54"/>
     </row>
     <row r="236" spans="1:8" ht="13.5" customHeight="1">
       <c r="A236" s="2" t="s">
@@ -13118,7 +13146,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="30"/>
       <c r="G236" s="6"/>
-      <c r="H236" s="58"/>
+      <c r="H236" s="54"/>
     </row>
     <row r="237" spans="1:8" ht="13.5" customHeight="1">
       <c r="A237" s="2" t="s">
@@ -13136,7 +13164,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="30"/>
       <c r="G237" s="6"/>
-      <c r="H237" s="58"/>
+      <c r="H237" s="54"/>
     </row>
     <row r="238" spans="1:8" ht="13.5" customHeight="1">
       <c r="A238" s="2" t="s">
@@ -13150,7 +13178,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="30"/>
       <c r="G238" s="6"/>
-      <c r="H238" s="58"/>
+      <c r="H238" s="54"/>
     </row>
     <row r="239" spans="1:8" ht="13.5" customHeight="1">
       <c r="A239" s="2" t="s">
@@ -13164,7 +13192,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="30"/>
       <c r="G239" s="6"/>
-      <c r="H239" s="58"/>
+      <c r="H239" s="54"/>
     </row>
     <row r="240" spans="1:8" ht="13.5" customHeight="1">
       <c r="A240" s="2" t="s">
@@ -13178,7 +13206,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="30"/>
       <c r="G240" s="6"/>
-      <c r="H240" s="58"/>
+      <c r="H240" s="54"/>
     </row>
     <row r="241" spans="1:8" ht="13.5" customHeight="1">
       <c r="A241" s="2" t="s">
@@ -13192,7 +13220,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="30"/>
       <c r="G241" s="6"/>
-      <c r="H241" s="58"/>
+      <c r="H241" s="54"/>
     </row>
     <row r="242" spans="1:8" ht="13.5" customHeight="1">
       <c r="A242" s="2" t="s">
@@ -13206,7 +13234,7 @@
       <c r="E242" s="9"/>
       <c r="F242" s="36"/>
       <c r="G242" s="7"/>
-      <c r="H242" s="59"/>
+      <c r="H242" s="55"/>
     </row>
     <row r="243" spans="1:8" ht="13.5" customHeight="1">
       <c r="A243" s="2" t="s">
@@ -13230,7 +13258,7 @@
       <c r="G243" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="H243" s="58" t="s">
+      <c r="H243" s="54" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -13246,7 +13274,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="30"/>
       <c r="G244" s="6"/>
-      <c r="H244" s="58"/>
+      <c r="H244" s="54"/>
     </row>
     <row r="245" spans="1:8" ht="13.5" customHeight="1">
       <c r="A245" s="2" t="s">
@@ -13260,7 +13288,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="30"/>
       <c r="G245" s="6"/>
-      <c r="H245" s="58"/>
+      <c r="H245" s="54"/>
     </row>
     <row r="246" spans="1:8" ht="13.5" customHeight="1">
       <c r="A246" s="2" t="s">
@@ -13278,7 +13306,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="30"/>
       <c r="G246" s="6"/>
-      <c r="H246" s="58"/>
+      <c r="H246" s="54"/>
     </row>
     <row r="247" spans="1:8" ht="13.5" customHeight="1">
       <c r="A247" s="2" t="s">
@@ -13292,7 +13320,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="30"/>
       <c r="G247" s="6"/>
-      <c r="H247" s="58"/>
+      <c r="H247" s="54"/>
     </row>
     <row r="248" spans="1:8" ht="13.5" customHeight="1">
       <c r="A248" s="2" t="s">
@@ -13310,7 +13338,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="30"/>
       <c r="G248" s="6"/>
-      <c r="H248" s="58"/>
+      <c r="H248" s="54"/>
     </row>
     <row r="249" spans="1:8" ht="13.5" customHeight="1">
       <c r="A249" s="2" t="s">
@@ -13324,7 +13352,7 @@
       <c r="E249" s="9"/>
       <c r="F249" s="36"/>
       <c r="G249" s="6"/>
-      <c r="H249" s="58"/>
+      <c r="H249" s="54"/>
     </row>
     <row r="250" spans="1:8" ht="13.5" customHeight="1">
       <c r="A250" s="2" t="s">
@@ -13346,7 +13374,7 @@
         <v>849</v>
       </c>
       <c r="G250" s="6"/>
-      <c r="H250" s="58"/>
+      <c r="H250" s="54"/>
     </row>
     <row r="251" spans="1:8" ht="13.5" customHeight="1">
       <c r="A251" s="2" t="s">
@@ -13360,7 +13388,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="30"/>
       <c r="G251" s="6"/>
-      <c r="H251" s="58"/>
+      <c r="H251" s="54"/>
     </row>
     <row r="252" spans="1:8" ht="13.5" customHeight="1">
       <c r="A252" s="2" t="s">
@@ -13374,7 +13402,7 @@
       <c r="E252" s="9"/>
       <c r="F252" s="36"/>
       <c r="G252" s="6"/>
-      <c r="H252" s="58"/>
+      <c r="H252" s="54"/>
     </row>
     <row r="253" spans="1:8" ht="13.5" customHeight="1">
       <c r="A253" s="2" t="s">
@@ -13396,7 +13424,7 @@
         <v>1193</v>
       </c>
       <c r="G253" s="6"/>
-      <c r="H253" s="58"/>
+      <c r="H253" s="54"/>
     </row>
     <row r="254" spans="1:8" ht="13.5" customHeight="1">
       <c r="A254" s="2" t="s">
@@ -13414,7 +13442,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="30"/>
       <c r="G254" s="6"/>
-      <c r="H254" s="58"/>
+      <c r="H254" s="54"/>
     </row>
     <row r="255" spans="1:8" ht="13.5" customHeight="1">
       <c r="A255" s="2" t="s">
@@ -13432,7 +13460,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="30"/>
       <c r="G255" s="6"/>
-      <c r="H255" s="58"/>
+      <c r="H255" s="54"/>
     </row>
     <row r="256" spans="1:8" ht="13.5" customHeight="1">
       <c r="A256" s="2" t="s">
@@ -13446,7 +13474,7 @@
       <c r="E256" s="9"/>
       <c r="F256" s="36"/>
       <c r="G256" s="7"/>
-      <c r="H256" s="59"/>
+      <c r="H256" s="55"/>
     </row>
     <row r="257" spans="1:8" ht="13.5" customHeight="1">
       <c r="A257" s="2" t="s">
@@ -13470,7 +13498,7 @@
       <c r="G257" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="H257" s="58" t="s">
+      <c r="H257" s="54" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -13486,7 +13514,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="30"/>
       <c r="G258" s="6"/>
-      <c r="H258" s="58"/>
+      <c r="H258" s="54"/>
     </row>
     <row r="259" spans="1:8" ht="13.5" customHeight="1">
       <c r="A259" s="2" t="s">
@@ -13500,7 +13528,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="30"/>
       <c r="G259" s="6"/>
-      <c r="H259" s="58"/>
+      <c r="H259" s="54"/>
     </row>
     <row r="260" spans="1:8" ht="13.5" customHeight="1">
       <c r="A260" s="2" t="s">
@@ -13518,7 +13546,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="30"/>
       <c r="G260" s="6"/>
-      <c r="H260" s="58"/>
+      <c r="H260" s="54"/>
     </row>
     <row r="261" spans="1:8" ht="13.5" customHeight="1">
       <c r="A261" s="2" t="s">
@@ -13532,7 +13560,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="30"/>
       <c r="G261" s="6"/>
-      <c r="H261" s="58"/>
+      <c r="H261" s="54"/>
     </row>
     <row r="262" spans="1:8" ht="13.5" customHeight="1">
       <c r="A262" s="2" t="s">
@@ -13546,7 +13574,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="30"/>
       <c r="G262" s="6"/>
-      <c r="H262" s="58"/>
+      <c r="H262" s="54"/>
     </row>
     <row r="263" spans="1:8" ht="13.5" customHeight="1">
       <c r="A263" s="2" t="s">
@@ -13560,7 +13588,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="30"/>
       <c r="G263" s="6"/>
-      <c r="H263" s="58"/>
+      <c r="H263" s="54"/>
     </row>
     <row r="264" spans="1:8" ht="13.5" customHeight="1">
       <c r="A264" s="2" t="s">
@@ -13574,7 +13602,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="30"/>
       <c r="G264" s="6"/>
-      <c r="H264" s="58"/>
+      <c r="H264" s="54"/>
     </row>
     <row r="265" spans="1:8" ht="13.5" customHeight="1">
       <c r="A265" s="2" t="s">
@@ -13588,7 +13616,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="30"/>
       <c r="G265" s="6"/>
-      <c r="H265" s="58"/>
+      <c r="H265" s="54"/>
     </row>
     <row r="266" spans="1:8" ht="13.5" customHeight="1">
       <c r="A266" s="2" t="s">
@@ -13602,7 +13630,7 @@
       <c r="E266" s="9"/>
       <c r="F266" s="36"/>
       <c r="G266" s="7"/>
-      <c r="H266" s="59"/>
+      <c r="H266" s="55"/>
     </row>
     <row r="267" spans="1:8" ht="13.5" customHeight="1">
       <c r="A267" s="2" t="s">
@@ -13626,7 +13654,7 @@
       <c r="G267" s="6" t="s">
         <v>882</v>
       </c>
-      <c r="H267" s="58" t="s">
+      <c r="H267" s="54" t="s">
         <v>883</v>
       </c>
     </row>
@@ -13642,7 +13670,7 @@
       <c r="E268" s="9"/>
       <c r="F268" s="36"/>
       <c r="G268" s="7"/>
-      <c r="H268" s="59"/>
+      <c r="H268" s="55"/>
     </row>
     <row r="269" spans="1:8" ht="13.5" customHeight="1">
       <c r="A269" s="2" t="s">
@@ -13666,7 +13694,7 @@
       <c r="G269" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="H269" s="58" t="s">
+      <c r="H269" s="54" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -13682,7 +13710,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="30"/>
       <c r="G270" s="6"/>
-      <c r="H270" s="58"/>
+      <c r="H270" s="54"/>
     </row>
     <row r="271" spans="1:8" ht="13.5" customHeight="1">
       <c r="A271" s="2" t="s">
@@ -13696,7 +13724,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="30"/>
       <c r="G271" s="6"/>
-      <c r="H271" s="58"/>
+      <c r="H271" s="54"/>
     </row>
     <row r="272" spans="1:8" ht="13.5" customHeight="1">
       <c r="A272" s="2" t="s">
@@ -13710,7 +13738,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="30"/>
       <c r="G272" s="6"/>
-      <c r="H272" s="58"/>
+      <c r="H272" s="54"/>
     </row>
     <row r="273" spans="1:8" ht="13.5" customHeight="1">
       <c r="A273" s="2" t="s">
@@ -13724,7 +13752,7 @@
       <c r="E273" s="9"/>
       <c r="F273" s="36"/>
       <c r="G273" s="6"/>
-      <c r="H273" s="58"/>
+      <c r="H273" s="54"/>
     </row>
     <row r="274" spans="1:8" ht="13.5" customHeight="1">
       <c r="A274" s="2" t="s">
@@ -13746,7 +13774,7 @@
         <v>897</v>
       </c>
       <c r="G274" s="6"/>
-      <c r="H274" s="58"/>
+      <c r="H274" s="54"/>
     </row>
     <row r="275" spans="1:8" ht="13.5" customHeight="1">
       <c r="A275" s="2" t="s">
@@ -13764,7 +13792,7 @@
       <c r="E275" s="9"/>
       <c r="F275" s="36"/>
       <c r="G275" s="7"/>
-      <c r="H275" s="59"/>
+      <c r="H275" s="55"/>
     </row>
     <row r="276" spans="1:8" ht="13.5" customHeight="1">
       <c r="A276" s="2" t="s">
@@ -13788,7 +13816,7 @@
       <c r="G276" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="H276" s="58" t="s">
+      <c r="H276" s="54" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -13812,7 +13840,7 @@
         <v>906</v>
       </c>
       <c r="G277" s="6"/>
-      <c r="H277" s="58"/>
+      <c r="H277" s="54"/>
     </row>
     <row r="278" spans="1:8" ht="13.5" customHeight="1">
       <c r="A278" s="2" t="s">
@@ -13826,7 +13854,7 @@
       <c r="E278" s="9"/>
       <c r="F278" s="36"/>
       <c r="G278" s="6"/>
-      <c r="H278" s="58"/>
+      <c r="H278" s="54"/>
     </row>
     <row r="279" spans="1:8" ht="13.5" customHeight="1">
       <c r="A279" s="2" t="s">
@@ -13848,7 +13876,7 @@
         <v>1253</v>
       </c>
       <c r="G279" s="6"/>
-      <c r="H279" s="58"/>
+      <c r="H279" s="54"/>
     </row>
     <row r="280" spans="1:8" ht="13.5" customHeight="1">
       <c r="A280" s="2" t="s">
@@ -13862,7 +13890,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="30"/>
       <c r="G280" s="6"/>
-      <c r="H280" s="58"/>
+      <c r="H280" s="54"/>
     </row>
     <row r="281" spans="1:8" ht="13.5" customHeight="1">
       <c r="A281" s="2" t="s">
@@ -13880,7 +13908,7 @@
       <c r="E281" s="9"/>
       <c r="F281" s="36"/>
       <c r="G281" s="7"/>
-      <c r="H281" s="59"/>
+      <c r="H281" s="55"/>
     </row>
     <row r="282" spans="1:8" ht="13.5" customHeight="1">
       <c r="A282" s="2" t="s">
@@ -13904,7 +13932,7 @@
       <c r="G282" s="6" t="s">
         <v>918</v>
       </c>
-      <c r="H282" s="58" t="s">
+      <c r="H282" s="54" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -13924,7 +13952,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="30"/>
       <c r="G283" s="6"/>
-      <c r="H283" s="58"/>
+      <c r="H283" s="54"/>
     </row>
     <row r="284" spans="1:8" ht="13.5" customHeight="1">
       <c r="A284" s="2" t="s">
@@ -13942,7 +13970,7 @@
       <c r="E284" s="9"/>
       <c r="F284" s="36"/>
       <c r="G284" s="6"/>
-      <c r="H284" s="58"/>
+      <c r="H284" s="54"/>
     </row>
     <row r="285" spans="1:8" ht="13.5" customHeight="1">
       <c r="A285" s="2" t="s">
@@ -13964,7 +13992,7 @@
         <v>926</v>
       </c>
       <c r="G285" s="6"/>
-      <c r="H285" s="58"/>
+      <c r="H285" s="54"/>
     </row>
     <row r="286" spans="1:8" ht="13.5" customHeight="1">
       <c r="A286" s="2" t="s">
@@ -13978,7 +14006,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="30"/>
       <c r="G286" s="6"/>
-      <c r="H286" s="58"/>
+      <c r="H286" s="54"/>
     </row>
     <row r="287" spans="1:8" ht="13.5" customHeight="1">
       <c r="A287" s="2" t="s">
@@ -13992,7 +14020,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="30"/>
       <c r="G287" s="6"/>
-      <c r="H287" s="58"/>
+      <c r="H287" s="54"/>
     </row>
     <row r="288" spans="1:8" ht="13.5" customHeight="1">
       <c r="A288" s="2" t="s">
@@ -14010,7 +14038,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="30"/>
       <c r="G288" s="6"/>
-      <c r="H288" s="58"/>
+      <c r="H288" s="54"/>
     </row>
     <row r="289" spans="1:8" ht="13.5" customHeight="1">
       <c r="A289" s="2" t="s">
@@ -14024,7 +14052,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="30"/>
       <c r="G289" s="6"/>
-      <c r="H289" s="58"/>
+      <c r="H289" s="54"/>
     </row>
     <row r="290" spans="1:8" ht="13.5" customHeight="1">
       <c r="A290" s="2" t="s">
@@ -14038,7 +14066,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="30"/>
       <c r="G290" s="6"/>
-      <c r="H290" s="58"/>
+      <c r="H290" s="54"/>
     </row>
     <row r="291" spans="1:8" ht="13.5" customHeight="1">
       <c r="A291" s="2" t="s">
@@ -14052,7 +14080,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="30"/>
       <c r="G291" s="6"/>
-      <c r="H291" s="58"/>
+      <c r="H291" s="54"/>
     </row>
     <row r="292" spans="1:8" ht="13.5" customHeight="1">
       <c r="A292" s="2" t="s">
@@ -14070,7 +14098,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="30"/>
       <c r="G292" s="6"/>
-      <c r="H292" s="58"/>
+      <c r="H292" s="54"/>
     </row>
     <row r="293" spans="1:8" ht="13.5" customHeight="1">
       <c r="A293" s="2" t="s">
@@ -14084,7 +14112,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="30"/>
       <c r="G293" s="6"/>
-      <c r="H293" s="58"/>
+      <c r="H293" s="54"/>
     </row>
     <row r="294" spans="1:8" ht="13.5" customHeight="1">
       <c r="A294" s="2" t="s">
@@ -14098,7 +14126,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="30"/>
       <c r="G294" s="6"/>
-      <c r="H294" s="58"/>
+      <c r="H294" s="54"/>
     </row>
     <row r="295" spans="1:8" ht="13.5" customHeight="1">
       <c r="A295" s="2" t="s">
@@ -14112,7 +14140,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="30"/>
       <c r="G295" s="6"/>
-      <c r="H295" s="58"/>
+      <c r="H295" s="54"/>
     </row>
     <row r="296" spans="1:8" ht="13.5" customHeight="1">
       <c r="A296" s="2" t="s">
@@ -14130,31 +14158,31 @@
       <c r="E296" s="9"/>
       <c r="F296" s="36"/>
       <c r="G296" s="7"/>
-      <c r="H296" s="59"/>
-    </row>
-    <row r="297" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A297" s="103" t="s">
+      <c r="H296" s="55"/>
+    </row>
+    <row r="297" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A297" s="93" t="s">
         <v>943</v>
       </c>
-      <c r="B297" s="104" t="s">
+      <c r="B297" s="94" t="s">
         <v>340</v>
       </c>
-      <c r="C297" s="105" t="s">
+      <c r="C297" s="95" t="s">
         <v>944</v>
       </c>
-      <c r="D297" s="106" t="s">
+      <c r="D297" s="96" t="s">
         <v>340</v>
       </c>
-      <c r="E297" s="105" t="s">
+      <c r="E297" s="95" t="s">
         <v>945</v>
       </c>
-      <c r="F297" s="106" t="s">
+      <c r="F297" s="96" t="s">
         <v>1206</v>
       </c>
-      <c r="G297" s="107" t="s">
+      <c r="G297" s="97" t="s">
         <v>946</v>
       </c>
-      <c r="H297" s="108" t="s">
+      <c r="H297" s="98" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -14180,7 +14208,7 @@
       <c r="G298" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="H298" s="58" t="s">
+      <c r="H298" s="54" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -14200,7 +14228,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="30"/>
       <c r="G299" s="6"/>
-      <c r="H299" s="58"/>
+      <c r="H299" s="54"/>
     </row>
     <row r="300" spans="1:8" ht="13.5" customHeight="1">
       <c r="A300" s="2" t="s">
@@ -14214,7 +14242,7 @@
       <c r="E300" s="9"/>
       <c r="F300" s="36"/>
       <c r="G300" s="6"/>
-      <c r="H300" s="58"/>
+      <c r="H300" s="54"/>
     </row>
     <row r="301" spans="1:8" ht="13.5" customHeight="1">
       <c r="A301" s="2" t="s">
@@ -14236,7 +14264,7 @@
         <v>958</v>
       </c>
       <c r="G301" s="6"/>
-      <c r="H301" s="58"/>
+      <c r="H301" s="54"/>
     </row>
     <row r="302" spans="1:8" ht="13.5" customHeight="1">
       <c r="A302" s="2" t="s">
@@ -14250,7 +14278,7 @@
       <c r="E302" s="9"/>
       <c r="F302" s="36"/>
       <c r="G302" s="6"/>
-      <c r="H302" s="58"/>
+      <c r="H302" s="54"/>
     </row>
     <row r="303" spans="1:8" ht="13.5" customHeight="1">
       <c r="A303" s="2" t="s">
@@ -14272,7 +14300,7 @@
         <v>346</v>
       </c>
       <c r="G303" s="6"/>
-      <c r="H303" s="58"/>
+      <c r="H303" s="54"/>
     </row>
     <row r="304" spans="1:8" ht="13.5" customHeight="1">
       <c r="A304" s="2" t="s">
@@ -14294,7 +14322,7 @@
         <v>1210</v>
       </c>
       <c r="G304" s="6"/>
-      <c r="H304" s="58"/>
+      <c r="H304" s="54"/>
     </row>
     <row r="305" spans="1:8" ht="13.5" customHeight="1">
       <c r="A305" s="2" t="s">
@@ -14308,7 +14336,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="30"/>
       <c r="G305" s="6"/>
-      <c r="H305" s="58"/>
+      <c r="H305" s="54"/>
     </row>
     <row r="306" spans="1:8" ht="13.5" customHeight="1">
       <c r="A306" s="2" t="s">
@@ -14322,7 +14350,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="30"/>
       <c r="G306" s="6"/>
-      <c r="H306" s="58"/>
+      <c r="H306" s="54"/>
     </row>
     <row r="307" spans="1:8" ht="13.5" customHeight="1">
       <c r="A307" s="2" t="s">
@@ -14340,7 +14368,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="30"/>
       <c r="G307" s="6"/>
-      <c r="H307" s="58"/>
+      <c r="H307" s="54"/>
     </row>
     <row r="308" spans="1:8" ht="13.5" customHeight="1">
       <c r="A308" s="2" t="s">
@@ -14358,7 +14386,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="30"/>
       <c r="G308" s="6"/>
-      <c r="H308" s="58"/>
+      <c r="H308" s="54"/>
     </row>
     <row r="309" spans="1:8" ht="13.5" customHeight="1">
       <c r="A309" s="2" t="s">
@@ -14376,7 +14404,7 @@
       <c r="E309" s="9"/>
       <c r="F309" s="36"/>
       <c r="G309" s="6"/>
-      <c r="H309" s="58"/>
+      <c r="H309" s="54"/>
     </row>
     <row r="310" spans="1:8" ht="13.5" customHeight="1">
       <c r="A310" s="2" t="s">
@@ -14398,7 +14426,7 @@
         <v>978</v>
       </c>
       <c r="G310" s="6"/>
-      <c r="H310" s="58"/>
+      <c r="H310" s="54"/>
     </row>
     <row r="311" spans="1:8" ht="13.5" customHeight="1">
       <c r="A311" s="2" t="s">
@@ -14416,7 +14444,7 @@
       <c r="E311" s="9"/>
       <c r="F311" s="36"/>
       <c r="G311" s="7"/>
-      <c r="H311" s="59"/>
+      <c r="H311" s="55"/>
     </row>
     <row r="312" spans="1:8" ht="13.5" customHeight="1">
       <c r="A312" s="2" t="s">
@@ -14440,7 +14468,7 @@
       <c r="G312" s="6" t="s">
         <v>984</v>
       </c>
-      <c r="H312" s="58" t="s">
+      <c r="H312" s="54" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -14456,7 +14484,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="30"/>
       <c r="G313" s="6"/>
-      <c r="H313" s="58"/>
+      <c r="H313" s="54"/>
     </row>
     <row r="314" spans="1:8" ht="13.5" customHeight="1">
       <c r="A314" s="2" t="s">
@@ -14470,7 +14498,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="30"/>
       <c r="G314" s="6"/>
-      <c r="H314" s="58"/>
+      <c r="H314" s="54"/>
     </row>
     <row r="315" spans="1:8" ht="13.5" customHeight="1">
       <c r="A315" s="2" t="s">
@@ -14484,7 +14512,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="30"/>
       <c r="G315" s="6"/>
-      <c r="H315" s="58"/>
+      <c r="H315" s="54"/>
     </row>
     <row r="316" spans="1:8" ht="13.5" customHeight="1">
       <c r="A316" s="2" t="s">
@@ -14502,7 +14530,7 @@
       <c r="E316" s="9"/>
       <c r="F316" s="36"/>
       <c r="G316" s="7"/>
-      <c r="H316" s="59"/>
+      <c r="H316" s="55"/>
     </row>
     <row r="317" spans="1:8" ht="13.5" customHeight="1">
       <c r="A317" s="2" t="s">
@@ -14526,7 +14554,7 @@
       <c r="G317" s="6" t="s">
         <v>994</v>
       </c>
-      <c r="H317" s="58" t="s">
+      <c r="H317" s="54" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -14542,7 +14570,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="30"/>
       <c r="G318" s="6"/>
-      <c r="H318" s="58"/>
+      <c r="H318" s="54"/>
     </row>
     <row r="319" spans="1:8" ht="13.5" customHeight="1">
       <c r="A319" s="2" t="s">
@@ -14560,7 +14588,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="30"/>
       <c r="G319" s="6"/>
-      <c r="H319" s="58"/>
+      <c r="H319" s="54"/>
     </row>
     <row r="320" spans="1:8" ht="13.5" customHeight="1">
       <c r="A320" s="2" t="s">
@@ -14574,7 +14602,7 @@
       <c r="E320" s="9"/>
       <c r="F320" s="36"/>
       <c r="G320" s="6"/>
-      <c r="H320" s="58"/>
+      <c r="H320" s="54"/>
     </row>
     <row r="321" spans="1:8" ht="13.5" customHeight="1">
       <c r="A321" s="2" t="s">
@@ -14596,7 +14624,7 @@
         <v>1217</v>
       </c>
       <c r="G321" s="6"/>
-      <c r="H321" s="58"/>
+      <c r="H321" s="54"/>
     </row>
     <row r="322" spans="1:8" ht="13.5" customHeight="1">
       <c r="A322" s="2" t="s">
@@ -14610,105 +14638,105 @@
       <c r="E322" s="9"/>
       <c r="F322" s="36"/>
       <c r="G322" s="6"/>
-      <c r="H322" s="58"/>
-    </row>
-    <row r="323" spans="1:8" s="109" customFormat="1" ht="13" customHeight="1">
-      <c r="A323" s="103" t="s">
+      <c r="H322" s="54"/>
+    </row>
+    <row r="323" spans="1:8" s="99" customFormat="1" ht="13" customHeight="1">
+      <c r="A323" s="93" t="s">
         <v>1004</v>
       </c>
-      <c r="B323" s="104" t="s">
+      <c r="B323" s="94" t="s">
         <v>1219</v>
       </c>
-      <c r="C323" s="105" t="s">
+      <c r="C323" s="95" t="s">
         <v>1005</v>
       </c>
-      <c r="D323" s="106" t="s">
+      <c r="D323" s="96" t="s">
         <v>1006</v>
       </c>
-      <c r="E323" s="105" t="s">
+      <c r="E323" s="95" t="s">
         <v>1007</v>
       </c>
-      <c r="F323" s="106" t="s">
+      <c r="F323" s="96" t="s">
         <v>1220</v>
       </c>
-      <c r="G323" s="112"/>
-      <c r="H323" s="113"/>
-    </row>
-    <row r="324" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A324" s="103" t="s">
+      <c r="G323" s="102"/>
+      <c r="H323" s="103"/>
+    </row>
+    <row r="324" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A324" s="93" t="s">
         <v>1008</v>
       </c>
-      <c r="B324" s="104" t="s">
+      <c r="B324" s="94" t="s">
         <v>355</v>
       </c>
-      <c r="C324" s="110" t="s">
+      <c r="C324" s="100" t="s">
         <v>1009</v>
       </c>
-      <c r="D324" s="111" t="s">
+      <c r="D324" s="101" t="s">
         <v>1010</v>
       </c>
-      <c r="E324" s="110" t="s">
+      <c r="E324" s="100" t="s">
         <v>1011</v>
       </c>
-      <c r="F324" s="111" t="s">
+      <c r="F324" s="101" t="s">
         <v>1255</v>
       </c>
-      <c r="G324" s="112"/>
-      <c r="H324" s="113"/>
-    </row>
-    <row r="325" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A325" s="103" t="s">
+      <c r="G324" s="102"/>
+      <c r="H324" s="103"/>
+    </row>
+    <row r="325" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A325" s="93" t="s">
         <v>1012</v>
       </c>
-      <c r="B325" s="104" t="s">
+      <c r="B325" s="94" t="s">
         <v>1010</v>
       </c>
-      <c r="C325" s="107"/>
-      <c r="D325" s="106"/>
-      <c r="E325" s="110"/>
-      <c r="F325" s="111"/>
-      <c r="G325" s="112"/>
-      <c r="H325" s="113"/>
-    </row>
-    <row r="326" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A326" s="103" t="s">
+      <c r="C325" s="97"/>
+      <c r="D325" s="96"/>
+      <c r="E325" s="100"/>
+      <c r="F325" s="101"/>
+      <c r="G325" s="102"/>
+      <c r="H325" s="103"/>
+    </row>
+    <row r="326" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A326" s="93" t="s">
         <v>1013</v>
       </c>
-      <c r="B326" s="104" t="s">
+      <c r="B326" s="94" t="s">
         <v>356</v>
       </c>
-      <c r="C326" s="105" t="s">
+      <c r="C326" s="95" t="s">
         <v>1014</v>
       </c>
-      <c r="D326" s="106" t="s">
+      <c r="D326" s="96" t="s">
         <v>1221</v>
       </c>
-      <c r="E326" s="105"/>
-      <c r="F326" s="106"/>
-      <c r="G326" s="112"/>
-      <c r="H326" s="113"/>
-    </row>
-    <row r="327" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A327" s="103" t="s">
+      <c r="E326" s="95"/>
+      <c r="F326" s="96"/>
+      <c r="G326" s="102"/>
+      <c r="H326" s="103"/>
+    </row>
+    <row r="327" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A327" s="93" t="s">
         <v>1015</v>
       </c>
-      <c r="B327" s="104" t="s">
+      <c r="B327" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="C327" s="105" t="s">
+      <c r="C327" s="95" t="s">
         <v>1016</v>
       </c>
-      <c r="D327" s="106" t="s">
+      <c r="D327" s="96" t="s">
         <v>1017</v>
       </c>
-      <c r="E327" s="105" t="s">
+      <c r="E327" s="95" t="s">
         <v>1018</v>
       </c>
-      <c r="F327" s="106" t="s">
+      <c r="F327" s="96" t="s">
         <v>1017</v>
       </c>
-      <c r="G327" s="112"/>
-      <c r="H327" s="113"/>
+      <c r="G327" s="102"/>
+      <c r="H327" s="103"/>
     </row>
     <row r="328" spans="1:8" ht="13.5" customHeight="1">
       <c r="A328" s="2" t="s">
@@ -14730,7 +14758,7 @@
         <v>358</v>
       </c>
       <c r="G328" s="6"/>
-      <c r="H328" s="58"/>
+      <c r="H328" s="54"/>
     </row>
     <row r="329" spans="1:8" ht="13.5" customHeight="1">
       <c r="A329" s="2" t="s">
@@ -14744,7 +14772,7 @@
       <c r="E329" s="9"/>
       <c r="F329" s="36"/>
       <c r="G329" s="7"/>
-      <c r="H329" s="59"/>
+      <c r="H329" s="55"/>
     </row>
     <row r="330" spans="1:8" ht="13.5" customHeight="1">
       <c r="A330" s="2" t="s">
@@ -14768,7 +14796,7 @@
       <c r="G330" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="H330" s="58" t="s">
+      <c r="H330" s="54" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -14788,7 +14816,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="30"/>
       <c r="G331" s="6"/>
-      <c r="H331" s="58"/>
+      <c r="H331" s="54"/>
     </row>
     <row r="332" spans="1:8" ht="13.5" customHeight="1">
       <c r="A332" s="2" t="s">
@@ -14802,7 +14830,7 @@
       <c r="E332" s="9"/>
       <c r="F332" s="36"/>
       <c r="G332" s="6"/>
-      <c r="H332" s="58"/>
+      <c r="H332" s="54"/>
     </row>
     <row r="333" spans="1:8" ht="13.5" customHeight="1">
       <c r="A333" s="2" t="s">
@@ -14824,7 +14852,7 @@
         <v>1226</v>
       </c>
       <c r="G333" s="6"/>
-      <c r="H333" s="58"/>
+      <c r="H333" s="54"/>
     </row>
     <row r="334" spans="1:8" ht="13.5" customHeight="1">
       <c r="A334" s="2" t="s">
@@ -14838,7 +14866,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="30"/>
       <c r="G334" s="6"/>
-      <c r="H334" s="58"/>
+      <c r="H334" s="54"/>
     </row>
     <row r="335" spans="1:8" ht="13.5" customHeight="1">
       <c r="A335" s="2" t="s">
@@ -14852,7 +14880,7 @@
       <c r="E335" s="9"/>
       <c r="F335" s="36"/>
       <c r="G335" s="6"/>
-      <c r="H335" s="58"/>
+      <c r="H335" s="54"/>
     </row>
     <row r="336" spans="1:8" ht="13.5" customHeight="1">
       <c r="A336" s="2" t="s">
@@ -14874,7 +14902,7 @@
         <v>1228</v>
       </c>
       <c r="G336" s="7"/>
-      <c r="H336" s="59"/>
+      <c r="H336" s="55"/>
     </row>
     <row r="337" spans="1:8" ht="13.5" customHeight="1">
       <c r="A337" s="2" t="s">
@@ -14898,7 +14926,7 @@
       <c r="G337" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="H337" s="58" t="s">
+      <c r="H337" s="54" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -14922,7 +14950,7 @@
         <v>1259</v>
       </c>
       <c r="G338" s="6"/>
-      <c r="H338" s="58"/>
+      <c r="H338" s="54"/>
     </row>
     <row r="339" spans="1:8" ht="13.5" customHeight="1">
       <c r="A339" s="2" t="s">
@@ -14936,7 +14964,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="30"/>
       <c r="G339" s="6"/>
-      <c r="H339" s="58"/>
+      <c r="H339" s="54"/>
     </row>
     <row r="340" spans="1:8" ht="13.5" customHeight="1">
       <c r="A340" s="2" t="s">
@@ -14954,7 +14982,7 @@
       <c r="E340" s="9"/>
       <c r="F340" s="36"/>
       <c r="G340" s="7"/>
-      <c r="H340" s="59"/>
+      <c r="H340" s="55"/>
     </row>
     <row r="341" spans="1:8" ht="13.5" customHeight="1">
       <c r="A341" s="2" t="s">
@@ -14978,7 +15006,7 @@
       <c r="G341" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="H341" s="58" t="s">
+      <c r="H341" s="54" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -14994,7 +15022,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="30"/>
       <c r="G342" s="6"/>
-      <c r="H342" s="58"/>
+      <c r="H342" s="54"/>
     </row>
     <row r="343" spans="1:8" ht="13.5" customHeight="1">
       <c r="A343" s="2" t="s">
@@ -15008,7 +15036,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="30"/>
       <c r="G343" s="6"/>
-      <c r="H343" s="58"/>
+      <c r="H343" s="54"/>
     </row>
     <row r="344" spans="1:8" ht="13.5" customHeight="1">
       <c r="A344" s="2" t="s">
@@ -15022,7 +15050,7 @@
       <c r="E344" s="9"/>
       <c r="F344" s="36"/>
       <c r="G344" s="6"/>
-      <c r="H344" s="58"/>
+      <c r="H344" s="54"/>
     </row>
     <row r="345" spans="1:8" ht="13.5" customHeight="1">
       <c r="A345" s="2" t="s">
@@ -15044,7 +15072,7 @@
         <v>1060</v>
       </c>
       <c r="G345" s="6"/>
-      <c r="H345" s="58"/>
+      <c r="H345" s="54"/>
     </row>
     <row r="346" spans="1:8" ht="13.5" customHeight="1">
       <c r="A346" s="2" t="s">
@@ -15058,7 +15086,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="30"/>
       <c r="G346" s="6"/>
-      <c r="H346" s="58"/>
+      <c r="H346" s="54"/>
     </row>
     <row r="347" spans="1:8" ht="13.5" customHeight="1">
       <c r="A347" s="2" t="s">
@@ -15076,75 +15104,75 @@
       <c r="E347" s="9"/>
       <c r="F347" s="36"/>
       <c r="G347" s="6"/>
-      <c r="H347" s="58"/>
-    </row>
-    <row r="348" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A348" s="103" t="s">
+      <c r="H347" s="54"/>
+    </row>
+    <row r="348" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A348" s="93" t="s">
         <v>1065</v>
       </c>
-      <c r="B348" s="104" t="s">
+      <c r="B348" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="C348" s="105" t="s">
+      <c r="C348" s="95" t="s">
         <v>1066</v>
       </c>
-      <c r="D348" s="106" t="s">
+      <c r="D348" s="96" t="s">
         <v>366</v>
       </c>
-      <c r="E348" s="110" t="s">
+      <c r="E348" s="100" t="s">
         <v>1067</v>
       </c>
-      <c r="F348" s="111" t="s">
+      <c r="F348" s="101" t="s">
         <v>1260</v>
       </c>
-      <c r="G348" s="112"/>
-      <c r="H348" s="113"/>
-    </row>
-    <row r="349" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A349" s="103" t="s">
+      <c r="G348" s="102"/>
+      <c r="H348" s="103"/>
+    </row>
+    <row r="349" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A349" s="93" t="s">
         <v>1068</v>
       </c>
-      <c r="B349" s="104" t="s">
+      <c r="B349" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="C349" s="110" t="s">
+      <c r="C349" s="100" t="s">
         <v>1069</v>
       </c>
-      <c r="D349" s="111" t="s">
+      <c r="D349" s="101" t="s">
         <v>1261</v>
       </c>
-      <c r="E349" s="110"/>
-      <c r="F349" s="111"/>
-      <c r="G349" s="112"/>
-      <c r="H349" s="113"/>
-    </row>
-    <row r="350" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A350" s="103" t="s">
+      <c r="E349" s="100"/>
+      <c r="F349" s="101"/>
+      <c r="G349" s="102"/>
+      <c r="H349" s="103"/>
+    </row>
+    <row r="350" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A350" s="93" t="s">
         <v>1070</v>
       </c>
-      <c r="B350" s="104" t="s">
+      <c r="B350" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="C350" s="112"/>
-      <c r="D350" s="111"/>
-      <c r="E350" s="110"/>
-      <c r="F350" s="111"/>
-      <c r="G350" s="112"/>
-      <c r="H350" s="113"/>
-    </row>
-    <row r="351" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A351" s="103" t="s">
+      <c r="C350" s="102"/>
+      <c r="D350" s="101"/>
+      <c r="E350" s="100"/>
+      <c r="F350" s="101"/>
+      <c r="G350" s="102"/>
+      <c r="H350" s="103"/>
+    </row>
+    <row r="351" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A351" s="93" t="s">
         <v>1071</v>
       </c>
-      <c r="B351" s="104" t="s">
+      <c r="B351" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="C351" s="107"/>
-      <c r="D351" s="106"/>
-      <c r="E351" s="105"/>
-      <c r="F351" s="106"/>
-      <c r="G351" s="107"/>
-      <c r="H351" s="108"/>
+      <c r="C351" s="97"/>
+      <c r="D351" s="96"/>
+      <c r="E351" s="95"/>
+      <c r="F351" s="96"/>
+      <c r="G351" s="97"/>
+      <c r="H351" s="98"/>
     </row>
     <row r="352" spans="1:8" ht="13.5" customHeight="1">
       <c r="A352" s="2" t="s">
@@ -15168,7 +15196,7 @@
       <c r="G352" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="H352" s="58" t="s">
+      <c r="H352" s="54" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -15192,7 +15220,7 @@
         <v>1077</v>
       </c>
       <c r="G353" s="6"/>
-      <c r="H353" s="58"/>
+      <c r="H353" s="54"/>
     </row>
     <row r="354" spans="1:8" ht="13.5" customHeight="1">
       <c r="A354" s="2" t="s">
@@ -15210,7 +15238,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="30"/>
       <c r="G354" s="6"/>
-      <c r="H354" s="58"/>
+      <c r="H354" s="54"/>
     </row>
     <row r="355" spans="1:8" ht="13.5" customHeight="1">
       <c r="A355" s="2" t="s">
@@ -15228,7 +15256,7 @@
       <c r="E355" s="9"/>
       <c r="F355" s="36"/>
       <c r="G355" s="7"/>
-      <c r="H355" s="59"/>
+      <c r="H355" s="55"/>
     </row>
     <row r="356" spans="1:8" ht="13.5" customHeight="1">
       <c r="A356" s="2" t="s">
@@ -15252,7 +15280,7 @@
       <c r="G356" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="H356" s="58" t="s">
+      <c r="H356" s="54" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -15268,7 +15296,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="30"/>
       <c r="G357" s="6"/>
-      <c r="H357" s="58"/>
+      <c r="H357" s="54"/>
     </row>
     <row r="358" spans="1:8" ht="13.5" customHeight="1">
       <c r="A358" s="2" t="s">
@@ -15286,61 +15314,61 @@
       <c r="E358" s="9"/>
       <c r="F358" s="36"/>
       <c r="G358" s="7"/>
-      <c r="H358" s="59"/>
-    </row>
-    <row r="359" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A359" s="103" t="s">
+      <c r="H358" s="55"/>
+    </row>
+    <row r="359" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A359" s="93" t="s">
         <v>1095</v>
       </c>
-      <c r="B359" s="104" t="s">
+      <c r="B359" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="C359" s="110" t="s">
+      <c r="C359" s="100" t="s">
         <v>1096</v>
       </c>
-      <c r="D359" s="111" t="s">
+      <c r="D359" s="101" t="s">
         <v>1097</v>
       </c>
-      <c r="E359" s="110" t="s">
+      <c r="E359" s="100" t="s">
         <v>1098</v>
       </c>
-      <c r="F359" s="111" t="s">
+      <c r="F359" s="101" t="s">
         <v>1097</v>
       </c>
-      <c r="G359" s="112" t="s">
+      <c r="G359" s="102" t="s">
         <v>1099</v>
       </c>
-      <c r="H359" s="113" t="s">
+      <c r="H359" s="103" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="360" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A360" s="103" t="s">
+    <row r="360" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A360" s="93" t="s">
         <v>1100</v>
       </c>
-      <c r="B360" s="104" t="s">
+      <c r="B360" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="C360" s="112"/>
-      <c r="D360" s="111"/>
-      <c r="E360" s="110"/>
-      <c r="F360" s="111"/>
-      <c r="G360" s="112"/>
-      <c r="H360" s="113"/>
-    </row>
-    <row r="361" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A361" s="103" t="s">
+      <c r="C360" s="102"/>
+      <c r="D360" s="101"/>
+      <c r="E360" s="100"/>
+      <c r="F360" s="101"/>
+      <c r="G360" s="102"/>
+      <c r="H360" s="103"/>
+    </row>
+    <row r="361" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A361" s="93" t="s">
         <v>1101</v>
       </c>
-      <c r="B361" s="104" t="s">
+      <c r="B361" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="C361" s="107"/>
-      <c r="D361" s="106"/>
-      <c r="E361" s="105"/>
-      <c r="F361" s="106"/>
-      <c r="G361" s="107"/>
-      <c r="H361" s="108"/>
+      <c r="C361" s="97"/>
+      <c r="D361" s="96"/>
+      <c r="E361" s="95"/>
+      <c r="F361" s="96"/>
+      <c r="G361" s="97"/>
+      <c r="H361" s="98"/>
     </row>
     <row r="362" spans="1:8" ht="13.5" customHeight="1">
       <c r="A362" s="2" t="s">
@@ -15364,7 +15392,7 @@
       <c r="G362" s="6" t="s">
         <v>1105</v>
       </c>
-      <c r="H362" s="58" t="s">
+      <c r="H362" s="54" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -15380,7 +15408,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="30"/>
       <c r="G363" s="6"/>
-      <c r="H363" s="58"/>
+      <c r="H363" s="54"/>
     </row>
     <row r="364" spans="1:8" ht="13.5" customHeight="1">
       <c r="A364" s="2" t="s">
@@ -15394,7 +15422,7 @@
       <c r="E364" s="9"/>
       <c r="F364" s="36"/>
       <c r="G364" s="6"/>
-      <c r="H364" s="58"/>
+      <c r="H364" s="54"/>
     </row>
     <row r="365" spans="1:8" ht="13.5" customHeight="1">
       <c r="A365" s="2" t="s">
@@ -15416,7 +15444,7 @@
         <v>1240</v>
       </c>
       <c r="G365" s="6"/>
-      <c r="H365" s="58"/>
+      <c r="H365" s="54"/>
     </row>
     <row r="366" spans="1:8" ht="13.5" customHeight="1">
       <c r="A366" s="2" t="s">
@@ -15430,7 +15458,7 @@
       <c r="E366" s="9"/>
       <c r="F366" s="36"/>
       <c r="G366" s="7"/>
-      <c r="H366" s="59"/>
+      <c r="H366" s="55"/>
     </row>
     <row r="367" spans="1:8" ht="13.5" customHeight="1">
       <c r="A367" s="2" t="s">
@@ -15454,7 +15482,7 @@
       <c r="G367" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="H367" s="58" t="s">
+      <c r="H367" s="54" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -15470,7 +15498,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="30"/>
       <c r="G368" s="6"/>
-      <c r="H368" s="58"/>
+      <c r="H368" s="54"/>
     </row>
     <row r="369" spans="1:8" ht="13.5" customHeight="1">
       <c r="A369" s="2" t="s">
@@ -15484,7 +15512,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="30"/>
       <c r="G369" s="6"/>
-      <c r="H369" s="58"/>
+      <c r="H369" s="54"/>
     </row>
     <row r="370" spans="1:8" ht="13.5" customHeight="1">
       <c r="A370" s="2" t="s">
@@ -15498,7 +15526,7 @@
       <c r="E370" s="9"/>
       <c r="F370" s="36"/>
       <c r="G370" s="6"/>
-      <c r="H370" s="58"/>
+      <c r="H370" s="54"/>
     </row>
     <row r="371" spans="1:8" ht="13.5" customHeight="1">
       <c r="A371" s="2" t="s">
@@ -15520,7 +15548,7 @@
         <v>1243</v>
       </c>
       <c r="G371" s="6"/>
-      <c r="H371" s="58"/>
+      <c r="H371" s="54"/>
     </row>
     <row r="372" spans="1:8" ht="13" customHeight="1">
       <c r="A372" s="2" t="s">
@@ -15534,47 +15562,47 @@
       <c r="E372" s="9"/>
       <c r="F372" s="36"/>
       <c r="G372" s="7"/>
-      <c r="H372" s="59"/>
-    </row>
-    <row r="373" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A373" s="103" t="s">
+      <c r="H372" s="55"/>
+    </row>
+    <row r="373" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A373" s="93" t="s">
         <v>1124</v>
       </c>
-      <c r="B373" s="104" t="s">
+      <c r="B373" s="94" t="s">
         <v>251</v>
       </c>
-      <c r="C373" s="110" t="s">
+      <c r="C373" s="100" t="s">
         <v>1125</v>
       </c>
-      <c r="D373" s="111" t="s">
+      <c r="D373" s="101" t="s">
         <v>1126</v>
       </c>
-      <c r="E373" s="110" t="s">
+      <c r="E373" s="100" t="s">
         <v>1127</v>
       </c>
-      <c r="F373" s="111" t="s">
+      <c r="F373" s="101" t="s">
         <v>1126</v>
       </c>
-      <c r="G373" s="112" t="s">
+      <c r="G373" s="102" t="s">
         <v>1128</v>
       </c>
-      <c r="H373" s="113" t="s">
+      <c r="H373" s="103" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="374" spans="1:8" s="109" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A374" s="103" t="s">
+    <row r="374" spans="1:8" s="99" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A374" s="93" t="s">
         <v>1130</v>
       </c>
-      <c r="B374" s="104" t="s">
+      <c r="B374" s="94" t="s">
         <v>373</v>
       </c>
-      <c r="C374" s="107"/>
-      <c r="D374" s="106"/>
-      <c r="E374" s="105"/>
-      <c r="F374" s="106"/>
-      <c r="G374" s="112"/>
-      <c r="H374" s="113"/>
+      <c r="C374" s="97"/>
+      <c r="D374" s="96"/>
+      <c r="E374" s="95"/>
+      <c r="F374" s="96"/>
+      <c r="G374" s="102"/>
+      <c r="H374" s="103"/>
     </row>
     <row r="375" spans="1:8" ht="13.5" customHeight="1">
       <c r="A375" s="2" t="s">
@@ -15596,7 +15624,7 @@
         <v>1265</v>
       </c>
       <c r="G375" s="6"/>
-      <c r="H375" s="58"/>
+      <c r="H375" s="54"/>
     </row>
     <row r="376" spans="1:8" ht="13.5" customHeight="1">
       <c r="A376" s="2" t="s">
@@ -15610,7 +15638,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="30"/>
       <c r="G376" s="6"/>
-      <c r="H376" s="58"/>
+      <c r="H376" s="54"/>
     </row>
     <row r="377" spans="1:8" ht="13.5" customHeight="1">
       <c r="A377" s="2" t="s">
@@ -15628,7 +15656,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="30"/>
       <c r="G377" s="6"/>
-      <c r="H377" s="58"/>
+      <c r="H377" s="54"/>
     </row>
     <row r="378" spans="1:8" ht="13.5" customHeight="1">
       <c r="A378" s="2" t="s">
@@ -15642,7 +15670,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="30"/>
       <c r="G378" s="6"/>
-      <c r="H378" s="58"/>
+      <c r="H378" s="54"/>
     </row>
     <row r="379" spans="1:8" ht="13.5" customHeight="1">
       <c r="A379" s="2" t="s">
@@ -15656,7 +15684,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="30"/>
       <c r="G379" s="6"/>
-      <c r="H379" s="58"/>
+      <c r="H379" s="54"/>
     </row>
     <row r="380" spans="1:8" ht="13.5" customHeight="1">
       <c r="A380" s="2" t="s">
@@ -15670,837 +15698,837 @@
       <c r="E380" s="9"/>
       <c r="F380" s="36"/>
       <c r="G380" s="7"/>
-      <c r="H380" s="59"/>
+      <c r="H380" s="55"/>
     </row>
     <row r="381" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A381" s="3" t="s">
         <v>1141</v>
       </c>
-      <c r="B381" s="52" t="s">
+      <c r="B381" s="48" t="s">
         <v>1142</v>
       </c>
       <c r="C381" s="12" t="s">
         <v>1143</v>
       </c>
-      <c r="D381" s="52" t="s">
+      <c r="D381" s="48" t="s">
         <v>1142</v>
       </c>
       <c r="E381" s="12" t="s">
         <v>1144</v>
       </c>
-      <c r="F381" s="52" t="s">
+      <c r="F381" s="48" t="s">
         <v>1245</v>
       </c>
       <c r="G381" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="H381" s="60" t="s">
+      <c r="H381" s="56" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A382" s="61" t="s">
+      <c r="A382" s="57" t="s">
         <v>2111</v>
       </c>
-      <c r="B382" s="62" t="s">
+      <c r="B382" s="58" t="s">
         <v>2112</v>
       </c>
-      <c r="C382" s="63" t="s">
+      <c r="C382" s="59" t="s">
         <v>2111</v>
       </c>
-      <c r="D382" s="64" t="s">
+      <c r="D382" s="60" t="s">
         <v>2112</v>
       </c>
-      <c r="E382" s="65" t="s">
+      <c r="E382" s="61" t="s">
         <v>2111</v>
       </c>
-      <c r="F382" s="62" t="s">
+      <c r="F382" s="58" t="s">
         <v>2112</v>
       </c>
-      <c r="G382" s="66" t="s">
+      <c r="G382" s="62" t="s">
         <v>2111</v>
       </c>
-      <c r="H382" s="67" t="s">
+      <c r="H382" s="63" t="s">
         <v>2112</v>
       </c>
     </row>
     <row r="383" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A383" s="68" t="s">
+      <c r="A383" s="64" t="s">
         <v>2113</v>
       </c>
-      <c r="B383" s="69" t="s">
+      <c r="B383" s="65" t="s">
         <v>2114</v>
       </c>
-      <c r="C383" s="70" t="s">
+      <c r="C383" s="66" t="s">
         <v>2113</v>
       </c>
-      <c r="D383" s="71" t="s">
+      <c r="D383" s="67" t="s">
         <v>2114</v>
       </c>
-      <c r="E383" s="72" t="s">
+      <c r="E383" s="68" t="s">
         <v>2113</v>
       </c>
-      <c r="F383" s="69" t="s">
+      <c r="F383" s="65" t="s">
         <v>2114</v>
       </c>
-      <c r="G383" s="73" t="s">
+      <c r="G383" s="69" t="s">
         <v>2113</v>
       </c>
-      <c r="H383" s="74" t="s">
+      <c r="H383" s="70" t="s">
         <v>2114</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A384" s="68" t="s">
+      <c r="A384" s="64" t="s">
         <v>2115</v>
       </c>
-      <c r="B384" s="69" t="s">
+      <c r="B384" s="65" t="s">
         <v>2116</v>
       </c>
-      <c r="C384" s="70" t="s">
+      <c r="C384" s="66" t="s">
         <v>2115</v>
       </c>
-      <c r="D384" s="71" t="s">
+      <c r="D384" s="67" t="s">
         <v>2116</v>
       </c>
-      <c r="E384" s="72" t="s">
+      <c r="E384" s="68" t="s">
         <v>2115</v>
       </c>
-      <c r="F384" s="69" t="s">
+      <c r="F384" s="65" t="s">
         <v>2116</v>
       </c>
-      <c r="G384" s="73" t="s">
+      <c r="G384" s="69" t="s">
         <v>2115</v>
       </c>
-      <c r="H384" s="74" t="s">
+      <c r="H384" s="70" t="s">
         <v>2116</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A385" s="68" t="s">
+      <c r="A385" s="64" t="s">
         <v>2117</v>
       </c>
-      <c r="B385" s="69" t="s">
+      <c r="B385" s="65" t="s">
         <v>2118</v>
       </c>
-      <c r="C385" s="70" t="s">
+      <c r="C385" s="66" t="s">
         <v>2117</v>
       </c>
-      <c r="D385" s="71" t="s">
+      <c r="D385" s="67" t="s">
         <v>2118</v>
       </c>
-      <c r="E385" s="72" t="s">
+      <c r="E385" s="68" t="s">
         <v>2117</v>
       </c>
-      <c r="F385" s="69" t="s">
+      <c r="F385" s="65" t="s">
         <v>2118</v>
       </c>
-      <c r="G385" s="73" t="s">
+      <c r="G385" s="69" t="s">
         <v>2117</v>
       </c>
-      <c r="H385" s="74" t="s">
+      <c r="H385" s="70" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A386" s="68" t="s">
+      <c r="A386" s="64" t="s">
         <v>2119</v>
       </c>
-      <c r="B386" s="69" t="s">
+      <c r="B386" s="65" t="s">
         <v>2120</v>
       </c>
-      <c r="C386" s="70" t="s">
+      <c r="C386" s="66" t="s">
         <v>2119</v>
       </c>
-      <c r="D386" s="71" t="s">
+      <c r="D386" s="67" t="s">
         <v>2120</v>
       </c>
-      <c r="E386" s="72" t="s">
+      <c r="E386" s="68" t="s">
         <v>2119</v>
       </c>
-      <c r="F386" s="69" t="s">
+      <c r="F386" s="65" t="s">
         <v>2120</v>
       </c>
-      <c r="G386" s="73" t="s">
+      <c r="G386" s="69" t="s">
         <v>2119</v>
       </c>
-      <c r="H386" s="74" t="s">
+      <c r="H386" s="70" t="s">
         <v>2120</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A387" s="68" t="s">
+      <c r="A387" s="64" t="s">
         <v>2121</v>
       </c>
-      <c r="B387" s="69" t="s">
+      <c r="B387" s="65" t="s">
         <v>2122</v>
       </c>
-      <c r="C387" s="70" t="s">
+      <c r="C387" s="66" t="s">
         <v>2121</v>
       </c>
-      <c r="D387" s="71" t="s">
+      <c r="D387" s="67" t="s">
         <v>2122</v>
       </c>
-      <c r="E387" s="72" t="s">
+      <c r="E387" s="68" t="s">
         <v>2121</v>
       </c>
-      <c r="F387" s="69" t="s">
+      <c r="F387" s="65" t="s">
         <v>2122</v>
       </c>
-      <c r="G387" s="73" t="s">
+      <c r="G387" s="69" t="s">
         <v>2121</v>
       </c>
-      <c r="H387" s="74" t="s">
+      <c r="H387" s="70" t="s">
         <v>2122</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A388" s="68" t="s">
+      <c r="A388" s="64" t="s">
         <v>2123</v>
       </c>
-      <c r="B388" s="69" t="s">
+      <c r="B388" s="65" t="s">
         <v>2124</v>
       </c>
-      <c r="C388" s="70" t="s">
+      <c r="C388" s="66" t="s">
         <v>2123</v>
       </c>
-      <c r="D388" s="71" t="s">
+      <c r="D388" s="67" t="s">
         <v>2124</v>
       </c>
-      <c r="E388" s="72" t="s">
+      <c r="E388" s="68" t="s">
         <v>2123</v>
       </c>
-      <c r="F388" s="69" t="s">
+      <c r="F388" s="65" t="s">
         <v>2124</v>
       </c>
-      <c r="G388" s="73" t="s">
+      <c r="G388" s="69" t="s">
         <v>2123</v>
       </c>
-      <c r="H388" s="74" t="s">
+      <c r="H388" s="70" t="s">
         <v>2124</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A389" s="68" t="s">
+      <c r="A389" s="64" t="s">
         <v>2125</v>
       </c>
-      <c r="B389" s="69" t="s">
+      <c r="B389" s="65" t="s">
         <v>2126</v>
       </c>
-      <c r="C389" s="70" t="s">
+      <c r="C389" s="66" t="s">
         <v>2125</v>
       </c>
-      <c r="D389" s="71" t="s">
+      <c r="D389" s="67" t="s">
         <v>2126</v>
       </c>
-      <c r="E389" s="72" t="s">
+      <c r="E389" s="68" t="s">
         <v>2125</v>
       </c>
-      <c r="F389" s="69" t="s">
+      <c r="F389" s="65" t="s">
         <v>2126</v>
       </c>
-      <c r="G389" s="73" t="s">
+      <c r="G389" s="69" t="s">
         <v>2125</v>
       </c>
-      <c r="H389" s="74" t="s">
+      <c r="H389" s="70" t="s">
         <v>2126</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A390" s="68" t="s">
+      <c r="A390" s="64" t="s">
         <v>2127</v>
       </c>
-      <c r="B390" s="69" t="s">
+      <c r="B390" s="65" t="s">
         <v>2128</v>
       </c>
-      <c r="C390" s="70" t="s">
+      <c r="C390" s="66" t="s">
         <v>2127</v>
       </c>
-      <c r="D390" s="71" t="s">
+      <c r="D390" s="67" t="s">
         <v>2128</v>
       </c>
-      <c r="E390" s="72" t="s">
+      <c r="E390" s="68" t="s">
         <v>2127</v>
       </c>
-      <c r="F390" s="69" t="s">
+      <c r="F390" s="65" t="s">
         <v>2128</v>
       </c>
-      <c r="G390" s="73" t="s">
+      <c r="G390" s="69" t="s">
         <v>2127</v>
       </c>
-      <c r="H390" s="74" t="s">
+      <c r="H390" s="70" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A391" s="68" t="s">
+      <c r="A391" s="64" t="s">
         <v>2129</v>
       </c>
-      <c r="B391" s="69" t="s">
+      <c r="B391" s="65" t="s">
         <v>2130</v>
       </c>
-      <c r="C391" s="70" t="s">
+      <c r="C391" s="66" t="s">
         <v>2129</v>
       </c>
-      <c r="D391" s="71" t="s">
+      <c r="D391" s="67" t="s">
         <v>2130</v>
       </c>
-      <c r="E391" s="72" t="s">
+      <c r="E391" s="68" t="s">
         <v>2129</v>
       </c>
-      <c r="F391" s="69" t="s">
+      <c r="F391" s="65" t="s">
         <v>2130</v>
       </c>
-      <c r="G391" s="73" t="s">
+      <c r="G391" s="69" t="s">
         <v>2129</v>
       </c>
-      <c r="H391" s="74" t="s">
+      <c r="H391" s="70" t="s">
         <v>2130</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A392" s="68" t="s">
+      <c r="A392" s="64" t="s">
         <v>2131</v>
       </c>
-      <c r="B392" s="69" t="s">
+      <c r="B392" s="65" t="s">
         <v>2132</v>
       </c>
-      <c r="C392" s="70" t="s">
+      <c r="C392" s="66" t="s">
         <v>2131</v>
       </c>
-      <c r="D392" s="71" t="s">
+      <c r="D392" s="67" t="s">
         <v>2132</v>
       </c>
-      <c r="E392" s="72" t="s">
+      <c r="E392" s="68" t="s">
         <v>2131</v>
       </c>
-      <c r="F392" s="69" t="s">
+      <c r="F392" s="65" t="s">
         <v>2132</v>
       </c>
-      <c r="G392" s="73" t="s">
+      <c r="G392" s="69" t="s">
         <v>2131</v>
       </c>
-      <c r="H392" s="74" t="s">
+      <c r="H392" s="70" t="s">
         <v>2132</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A393" s="68" t="s">
+      <c r="A393" s="64" t="s">
         <v>2133</v>
       </c>
-      <c r="B393" s="69" t="s">
+      <c r="B393" s="65" t="s">
         <v>2134</v>
       </c>
-      <c r="C393" s="70" t="s">
+      <c r="C393" s="66" t="s">
         <v>2133</v>
       </c>
-      <c r="D393" s="71" t="s">
+      <c r="D393" s="67" t="s">
         <v>2134</v>
       </c>
-      <c r="E393" s="72" t="s">
+      <c r="E393" s="68" t="s">
         <v>2133</v>
       </c>
-      <c r="F393" s="69" t="s">
+      <c r="F393" s="65" t="s">
         <v>2134</v>
       </c>
-      <c r="G393" s="73" t="s">
+      <c r="G393" s="69" t="s">
         <v>2133</v>
       </c>
-      <c r="H393" s="74" t="s">
+      <c r="H393" s="70" t="s">
         <v>2134</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A394" s="68" t="s">
+      <c r="A394" s="64" t="s">
         <v>2135</v>
       </c>
-      <c r="B394" s="69" t="s">
+      <c r="B394" s="65" t="s">
         <v>2136</v>
       </c>
-      <c r="C394" s="70" t="s">
+      <c r="C394" s="66" t="s">
         <v>2135</v>
       </c>
-      <c r="D394" s="71" t="s">
+      <c r="D394" s="67" t="s">
         <v>2136</v>
       </c>
-      <c r="E394" s="72" t="s">
+      <c r="E394" s="68" t="s">
         <v>2135</v>
       </c>
-      <c r="F394" s="69" t="s">
+      <c r="F394" s="65" t="s">
         <v>2136</v>
       </c>
-      <c r="G394" s="73" t="s">
+      <c r="G394" s="69" t="s">
         <v>2135</v>
       </c>
-      <c r="H394" s="74" t="s">
+      <c r="H394" s="70" t="s">
         <v>2136</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A395" s="68" t="s">
+      <c r="A395" s="64" t="s">
         <v>2137</v>
       </c>
-      <c r="B395" s="69" t="s">
+      <c r="B395" s="65" t="s">
         <v>2138</v>
       </c>
-      <c r="C395" s="70" t="s">
+      <c r="C395" s="66" t="s">
         <v>2137</v>
       </c>
-      <c r="D395" s="71" t="s">
+      <c r="D395" s="67" t="s">
         <v>2138</v>
       </c>
-      <c r="E395" s="72" t="s">
+      <c r="E395" s="68" t="s">
         <v>2137</v>
       </c>
-      <c r="F395" s="69" t="s">
+      <c r="F395" s="65" t="s">
         <v>2138</v>
       </c>
-      <c r="G395" s="73" t="s">
+      <c r="G395" s="69" t="s">
         <v>2137</v>
       </c>
-      <c r="H395" s="74" t="s">
+      <c r="H395" s="70" t="s">
         <v>2138</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A396" s="68" t="s">
+      <c r="A396" s="64" t="s">
         <v>2139</v>
       </c>
-      <c r="B396" s="69" t="s">
+      <c r="B396" s="65" t="s">
         <v>2140</v>
       </c>
-      <c r="C396" s="70" t="s">
+      <c r="C396" s="66" t="s">
         <v>2139</v>
       </c>
-      <c r="D396" s="71" t="s">
+      <c r="D396" s="67" t="s">
         <v>2140</v>
       </c>
-      <c r="E396" s="72" t="s">
+      <c r="E396" s="68" t="s">
         <v>2139</v>
       </c>
-      <c r="F396" s="69" t="s">
+      <c r="F396" s="65" t="s">
         <v>2140</v>
       </c>
-      <c r="G396" s="73" t="s">
+      <c r="G396" s="69" t="s">
         <v>2139</v>
       </c>
-      <c r="H396" s="74" t="s">
+      <c r="H396" s="70" t="s">
         <v>2140</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A397" s="68" t="s">
+      <c r="A397" s="64" t="s">
         <v>2141</v>
       </c>
-      <c r="B397" s="69" t="s">
+      <c r="B397" s="65" t="s">
         <v>2142</v>
       </c>
-      <c r="C397" s="70" t="s">
+      <c r="C397" s="66" t="s">
         <v>2141</v>
       </c>
-      <c r="D397" s="71" t="s">
+      <c r="D397" s="67" t="s">
         <v>2142</v>
       </c>
-      <c r="E397" s="72" t="s">
+      <c r="E397" s="68" t="s">
         <v>2141</v>
       </c>
-      <c r="F397" s="69" t="s">
+      <c r="F397" s="65" t="s">
         <v>2142</v>
       </c>
-      <c r="G397" s="73" t="s">
+      <c r="G397" s="69" t="s">
         <v>2141</v>
       </c>
-      <c r="H397" s="74" t="s">
+      <c r="H397" s="70" t="s">
         <v>2142</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A398" s="68" t="s">
+      <c r="A398" s="64" t="s">
         <v>2143</v>
       </c>
-      <c r="B398" s="69" t="s">
+      <c r="B398" s="65" t="s">
         <v>2144</v>
       </c>
-      <c r="C398" s="70" t="s">
+      <c r="C398" s="66" t="s">
         <v>2143</v>
       </c>
-      <c r="D398" s="71" t="s">
+      <c r="D398" s="67" t="s">
         <v>2144</v>
       </c>
-      <c r="E398" s="72" t="s">
+      <c r="E398" s="68" t="s">
         <v>2143</v>
       </c>
-      <c r="F398" s="69" t="s">
+      <c r="F398" s="65" t="s">
         <v>2144</v>
       </c>
-      <c r="G398" s="73" t="s">
+      <c r="G398" s="69" t="s">
         <v>2143</v>
       </c>
-      <c r="H398" s="74" t="s">
+      <c r="H398" s="70" t="s">
         <v>2144</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A399" s="75" t="s">
+      <c r="A399" s="71" t="s">
         <v>2145</v>
       </c>
-      <c r="B399" s="76" t="s">
+      <c r="B399" s="72" t="s">
         <v>2146</v>
       </c>
-      <c r="C399" s="77" t="s">
+      <c r="C399" s="73" t="s">
         <v>2145</v>
       </c>
-      <c r="D399" s="78" t="s">
+      <c r="D399" s="74" t="s">
         <v>2146</v>
       </c>
-      <c r="E399" s="79" t="s">
+      <c r="E399" s="75" t="s">
         <v>2145</v>
       </c>
-      <c r="F399" s="76" t="s">
+      <c r="F399" s="72" t="s">
         <v>2146</v>
       </c>
-      <c r="G399" s="80" t="s">
+      <c r="G399" s="76" t="s">
         <v>2145</v>
       </c>
-      <c r="H399" s="81" t="s">
+      <c r="H399" s="77" t="s">
         <v>2146</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A400" s="68" t="s">
+      <c r="A400" s="64" t="s">
         <v>2147</v>
       </c>
-      <c r="B400" s="69" t="s">
+      <c r="B400" s="65" t="s">
         <v>2148</v>
       </c>
-      <c r="C400" s="70" t="s">
+      <c r="C400" s="66" t="s">
         <v>2147</v>
       </c>
-      <c r="D400" s="71" t="s">
+      <c r="D400" s="67" t="s">
         <v>2148</v>
       </c>
-      <c r="E400" s="72" t="s">
+      <c r="E400" s="68" t="s">
         <v>2147</v>
       </c>
-      <c r="F400" s="69" t="s">
+      <c r="F400" s="65" t="s">
         <v>2148</v>
       </c>
-      <c r="G400" s="73" t="s">
+      <c r="G400" s="69" t="s">
         <v>2147</v>
       </c>
-      <c r="H400" s="74" t="s">
+      <c r="H400" s="70" t="s">
         <v>2148</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A401" s="68" t="s">
+      <c r="A401" s="64" t="s">
         <v>2149</v>
       </c>
-      <c r="B401" s="69" t="s">
+      <c r="B401" s="65" t="s">
         <v>2150</v>
       </c>
-      <c r="C401" s="70" t="s">
+      <c r="C401" s="66" t="s">
         <v>2149</v>
       </c>
-      <c r="D401" s="71" t="s">
+      <c r="D401" s="67" t="s">
         <v>2150</v>
       </c>
-      <c r="E401" s="72" t="s">
+      <c r="E401" s="68" t="s">
         <v>2149</v>
       </c>
-      <c r="F401" s="69" t="s">
+      <c r="F401" s="65" t="s">
         <v>2150</v>
       </c>
-      <c r="G401" s="73" t="s">
+      <c r="G401" s="69" t="s">
         <v>2149</v>
       </c>
-      <c r="H401" s="74" t="s">
+      <c r="H401" s="70" t="s">
         <v>2150</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A402" s="68" t="s">
+      <c r="A402" s="64" t="s">
         <v>2151</v>
       </c>
-      <c r="B402" s="69" t="s">
+      <c r="B402" s="65" t="s">
         <v>2152</v>
       </c>
-      <c r="C402" s="70" t="s">
+      <c r="C402" s="66" t="s">
         <v>2151</v>
       </c>
-      <c r="D402" s="71" t="s">
+      <c r="D402" s="67" t="s">
         <v>2152</v>
       </c>
-      <c r="E402" s="72" t="s">
+      <c r="E402" s="68" t="s">
         <v>2151</v>
       </c>
-      <c r="F402" s="69" t="s">
+      <c r="F402" s="65" t="s">
         <v>2152</v>
       </c>
-      <c r="G402" s="73" t="s">
+      <c r="G402" s="69" t="s">
         <v>2151</v>
       </c>
-      <c r="H402" s="74" t="s">
+      <c r="H402" s="70" t="s">
         <v>2152</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A403" s="68" t="s">
+      <c r="A403" s="64" t="s">
         <v>2153</v>
       </c>
-      <c r="B403" s="69" t="s">
+      <c r="B403" s="65" t="s">
         <v>2154</v>
       </c>
-      <c r="C403" s="70" t="s">
+      <c r="C403" s="66" t="s">
         <v>2153</v>
       </c>
-      <c r="D403" s="71" t="s">
+      <c r="D403" s="67" t="s">
         <v>2154</v>
       </c>
-      <c r="E403" s="72" t="s">
+      <c r="E403" s="68" t="s">
         <v>2153</v>
       </c>
-      <c r="F403" s="69" t="s">
+      <c r="F403" s="65" t="s">
         <v>2154</v>
       </c>
-      <c r="G403" s="73" t="s">
+      <c r="G403" s="69" t="s">
         <v>2153</v>
       </c>
-      <c r="H403" s="74" t="s">
+      <c r="H403" s="70" t="s">
         <v>2154</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A404" s="68" t="s">
+      <c r="A404" s="64" t="s">
         <v>2155</v>
       </c>
-      <c r="B404" s="69" t="s">
+      <c r="B404" s="65" t="s">
         <v>2156</v>
       </c>
-      <c r="C404" s="70" t="s">
+      <c r="C404" s="66" t="s">
         <v>2155</v>
       </c>
-      <c r="D404" s="71" t="s">
+      <c r="D404" s="67" t="s">
         <v>2156</v>
       </c>
-      <c r="E404" s="72" t="s">
+      <c r="E404" s="68" t="s">
         <v>2155</v>
       </c>
-      <c r="F404" s="69" t="s">
+      <c r="F404" s="65" t="s">
         <v>2156</v>
       </c>
-      <c r="G404" s="73" t="s">
+      <c r="G404" s="69" t="s">
         <v>2155</v>
       </c>
-      <c r="H404" s="74" t="s">
+      <c r="H404" s="70" t="s">
         <v>2156</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A405" s="68" t="s">
+      <c r="A405" s="64" t="s">
         <v>2157</v>
       </c>
-      <c r="B405" s="69" t="s">
+      <c r="B405" s="65" t="s">
         <v>2173</v>
       </c>
-      <c r="C405" s="70" t="s">
+      <c r="C405" s="66" t="s">
         <v>2157</v>
       </c>
-      <c r="D405" s="71" t="s">
+      <c r="D405" s="67" t="s">
         <v>2158</v>
       </c>
-      <c r="E405" s="72" t="s">
+      <c r="E405" s="68" t="s">
         <v>2157</v>
       </c>
-      <c r="F405" s="69" t="s">
+      <c r="F405" s="65" t="s">
         <v>2158</v>
       </c>
-      <c r="G405" s="73" t="s">
+      <c r="G405" s="69" t="s">
         <v>2157</v>
       </c>
-      <c r="H405" s="74" t="s">
+      <c r="H405" s="70" t="s">
         <v>2158</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A406" s="68" t="s">
+      <c r="A406" s="64" t="s">
         <v>2159</v>
       </c>
-      <c r="B406" s="69" t="s">
+      <c r="B406" s="65" t="s">
         <v>2160</v>
       </c>
-      <c r="C406" s="70" t="s">
+      <c r="C406" s="66" t="s">
         <v>2159</v>
       </c>
-      <c r="D406" s="71" t="s">
+      <c r="D406" s="67" t="s">
         <v>2160</v>
       </c>
-      <c r="E406" s="72" t="s">
+      <c r="E406" s="68" t="s">
         <v>2159</v>
       </c>
-      <c r="F406" s="69" t="s">
+      <c r="F406" s="65" t="s">
         <v>2160</v>
       </c>
-      <c r="G406" s="73" t="s">
+      <c r="G406" s="69" t="s">
         <v>2159</v>
       </c>
-      <c r="H406" s="74" t="s">
+      <c r="H406" s="70" t="s">
         <v>2160</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A407" s="82" t="s">
+      <c r="A407" s="78" t="s">
         <v>2161</v>
       </c>
-      <c r="B407" s="83" t="s">
+      <c r="B407" s="79" t="s">
         <v>2162</v>
       </c>
-      <c r="C407" s="84" t="s">
+      <c r="C407" s="80" t="s">
         <v>2161</v>
       </c>
-      <c r="D407" s="85" t="s">
+      <c r="D407" s="81" t="s">
         <v>2162</v>
       </c>
-      <c r="E407" s="86" t="s">
+      <c r="E407" s="82" t="s">
         <v>2161</v>
       </c>
-      <c r="F407" s="83" t="s">
+      <c r="F407" s="79" t="s">
         <v>2162</v>
       </c>
-      <c r="G407" s="87" t="s">
+      <c r="G407" s="83" t="s">
         <v>2161</v>
       </c>
-      <c r="H407" s="88" t="s">
+      <c r="H407" s="84" t="s">
         <v>2162</v>
       </c>
     </row>
     <row r="408" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A408" s="68" t="s">
+      <c r="A408" s="64" t="s">
         <v>2163</v>
       </c>
-      <c r="B408" s="69" t="s">
+      <c r="B408" s="65" t="s">
         <v>2164</v>
       </c>
-      <c r="C408" s="70" t="s">
+      <c r="C408" s="66" t="s">
         <v>2163</v>
       </c>
-      <c r="D408" s="71" t="s">
+      <c r="D408" s="67" t="s">
         <v>2164</v>
       </c>
-      <c r="E408" s="72" t="s">
+      <c r="E408" s="68" t="s">
         <v>2163</v>
       </c>
-      <c r="F408" s="69" t="s">
+      <c r="F408" s="65" t="s">
         <v>2164</v>
       </c>
-      <c r="G408" s="73" t="s">
+      <c r="G408" s="69" t="s">
         <v>2163</v>
       </c>
-      <c r="H408" s="74" t="s">
+      <c r="H408" s="70" t="s">
         <v>2164</v>
       </c>
     </row>
     <row r="409" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A409" s="68" t="s">
+      <c r="A409" s="64" t="s">
         <v>2165</v>
       </c>
-      <c r="B409" s="69" t="s">
+      <c r="B409" s="65" t="s">
         <v>2166</v>
       </c>
-      <c r="C409" s="70" t="s">
+      <c r="C409" s="66" t="s">
         <v>2165</v>
       </c>
-      <c r="D409" s="71" t="s">
+      <c r="D409" s="67" t="s">
         <v>2166</v>
       </c>
-      <c r="E409" s="72" t="s">
+      <c r="E409" s="68" t="s">
         <v>2165</v>
       </c>
-      <c r="F409" s="69" t="s">
+      <c r="F409" s="65" t="s">
         <v>2166</v>
       </c>
-      <c r="G409" s="73" t="s">
+      <c r="G409" s="69" t="s">
         <v>2165</v>
       </c>
-      <c r="H409" s="74" t="s">
+      <c r="H409" s="70" t="s">
         <v>2166</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A410" s="68" t="s">
+      <c r="A410" s="64" t="s">
         <v>2167</v>
       </c>
-      <c r="B410" s="69" t="s">
+      <c r="B410" s="65" t="s">
         <v>2168</v>
       </c>
-      <c r="C410" s="70" t="s">
+      <c r="C410" s="66" t="s">
         <v>2167</v>
       </c>
-      <c r="D410" s="71" t="s">
+      <c r="D410" s="67" t="s">
         <v>2168</v>
       </c>
-      <c r="E410" s="72" t="s">
+      <c r="E410" s="68" t="s">
         <v>2167</v>
       </c>
-      <c r="F410" s="69" t="s">
+      <c r="F410" s="65" t="s">
         <v>2168</v>
       </c>
-      <c r="G410" s="73" t="s">
+      <c r="G410" s="69" t="s">
         <v>2167</v>
       </c>
-      <c r="H410" s="74" t="s">
+      <c r="H410" s="70" t="s">
         <v>2168</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A411" s="68" t="s">
+      <c r="A411" s="64" t="s">
         <v>2169</v>
       </c>
-      <c r="B411" s="69" t="s">
+      <c r="B411" s="65" t="s">
         <v>2170</v>
       </c>
-      <c r="C411" s="70" t="s">
+      <c r="C411" s="66" t="s">
         <v>2169</v>
       </c>
-      <c r="D411" s="71" t="s">
+      <c r="D411" s="67" t="s">
         <v>2170</v>
       </c>
-      <c r="E411" s="72" t="s">
+      <c r="E411" s="68" t="s">
         <v>2169</v>
       </c>
-      <c r="F411" s="69" t="s">
+      <c r="F411" s="65" t="s">
         <v>2170</v>
       </c>
-      <c r="G411" s="73" t="s">
+      <c r="G411" s="69" t="s">
         <v>2169</v>
       </c>
-      <c r="H411" s="74" t="s">
+      <c r="H411" s="70" t="s">
         <v>2170</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A412" s="89" t="s">
+      <c r="A412" s="85" t="s">
         <v>2171</v>
       </c>
-      <c r="B412" s="90" t="s">
+      <c r="B412" s="86" t="s">
         <v>2172</v>
       </c>
-      <c r="C412" s="91" t="s">
+      <c r="C412" s="87" t="s">
         <v>2171</v>
       </c>
-      <c r="D412" s="92" t="s">
+      <c r="D412" s="88" t="s">
         <v>2172</v>
       </c>
-      <c r="E412" s="93" t="s">
+      <c r="E412" s="89" t="s">
         <v>2171</v>
       </c>
-      <c r="F412" s="90" t="s">
+      <c r="F412" s="86" t="s">
         <v>2172</v>
       </c>
-      <c r="G412" s="94" t="s">
+      <c r="G412" s="90" t="s">
         <v>2171</v>
       </c>
-      <c r="H412" s="95" t="s">
+      <c r="H412" s="91" t="s">
         <v>2172</v>
       </c>
     </row>
@@ -16534,47 +16562,47 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="52" customWidth="1"/>
     <col min="3" max="3" width="5.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="52" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="52" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" style="56" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="52" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" style="14" customWidth="1"/>
     <col min="10" max="10" width="9" style="14" customWidth="1"/>
     <col min="11" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" thickBot="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="106" t="s">
         <v>2110</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="97"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="108" t="s">
         <v>1592</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="98" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="104" t="s">
         <v>1593</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="104" t="s">
         <v>1594</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="98" t="s">
+      <c r="F2" s="109"/>
+      <c r="G2" s="104" t="s">
         <v>1595</v>
       </c>
-      <c r="H2" s="99"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="19" t="s">
@@ -19633,7 +19661,7 @@
       </c>
       <c r="C181" s="37"/>
       <c r="D181" s="38"/>
-      <c r="E181" s="43"/>
+      <c r="E181" s="6"/>
       <c r="F181" s="30"/>
       <c r="G181" s="6"/>
       <c r="H181" s="27"/>
@@ -20279,13 +20307,13 @@
       <c r="H215" s="27"/>
     </row>
     <row r="216" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A216" s="44" t="s">
+      <c r="A216" s="43" t="s">
         <v>1769</v>
       </c>
       <c r="B216" s="23" t="s">
         <v>1325</v>
       </c>
-      <c r="C216" s="45" t="s">
+      <c r="C216" s="44" t="s">
         <v>1814</v>
       </c>
       <c r="D216" s="34" t="s">
@@ -20297,10 +20325,10 @@
       <c r="F216" s="23" t="s">
         <v>1325</v>
       </c>
-      <c r="G216" s="46" t="s">
+      <c r="G216" s="43" t="s">
         <v>946</v>
       </c>
-      <c r="H216" s="47" t="s">
+      <c r="H216" s="45" t="s">
         <v>1325</v>
       </c>
     </row>
@@ -21165,13 +21193,13 @@
       <c r="H260" s="27"/>
     </row>
     <row r="261" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A261" s="48" t="s">
+      <c r="A261" s="11" t="s">
         <v>1441</v>
       </c>
       <c r="B261" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C261" s="49" t="s">
+      <c r="C261" s="46" t="s">
         <v>1440</v>
       </c>
       <c r="D261" s="33" t="s">
@@ -21191,13 +21219,13 @@
       </c>
     </row>
     <row r="262" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A262" s="44" t="s">
+      <c r="A262" s="43" t="s">
         <v>1444</v>
       </c>
       <c r="B262" s="23" t="s">
         <v>1442</v>
       </c>
-      <c r="C262" s="45" t="s">
+      <c r="C262" s="44" t="s">
         <v>1443</v>
       </c>
       <c r="D262" s="34" t="s">
@@ -21213,13 +21241,13 @@
       <c r="H262" s="27"/>
     </row>
     <row r="263" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A263" s="44" t="s">
+      <c r="A263" s="43" t="s">
         <v>1777</v>
       </c>
       <c r="B263" s="23" t="s">
         <v>1445</v>
       </c>
-      <c r="C263" s="45" t="s">
+      <c r="C263" s="44" t="s">
         <v>1798</v>
       </c>
       <c r="D263" s="34" t="s">
@@ -21235,13 +21263,13 @@
       <c r="H263" s="27"/>
     </row>
     <row r="264" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A264" s="44" t="s">
+      <c r="A264" s="43" t="s">
         <v>1778</v>
       </c>
       <c r="B264" s="23" t="s">
         <v>1446</v>
       </c>
-      <c r="C264" s="45" t="s">
+      <c r="C264" s="44" t="s">
         <v>1799</v>
       </c>
       <c r="D264" s="34" t="s">
@@ -21257,13 +21285,13 @@
       <c r="H264" s="27"/>
     </row>
     <row r="265" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A265" s="48" t="s">
+      <c r="A265" s="11" t="s">
         <v>1779</v>
       </c>
       <c r="B265" s="26" t="s">
         <v>2013</v>
       </c>
-      <c r="C265" s="49" t="s">
+      <c r="C265" s="46" t="s">
         <v>1800</v>
       </c>
       <c r="D265" s="33" t="s">
@@ -21283,13 +21311,13 @@
       </c>
     </row>
     <row r="266" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A266" s="44" t="s">
+      <c r="A266" s="43" t="s">
         <v>1780</v>
       </c>
       <c r="B266" s="23" t="s">
         <v>2014</v>
       </c>
-      <c r="C266" s="45" t="s">
+      <c r="C266" s="44" t="s">
         <v>1801</v>
       </c>
       <c r="D266" s="34" t="s">
@@ -21301,13 +21329,13 @@
       <c r="H266" s="27"/>
     </row>
     <row r="267" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A267" s="44" t="s">
+      <c r="A267" s="43" t="s">
         <v>1781</v>
       </c>
       <c r="B267" s="23" t="s">
         <v>2015</v>
       </c>
-      <c r="C267" s="45" t="s">
+      <c r="C267" s="44" t="s">
         <v>1802</v>
       </c>
       <c r="D267" s="34" t="s">
@@ -21319,21 +21347,21 @@
       <c r="F267" s="23" t="s">
         <v>2015</v>
       </c>
-      <c r="G267" s="46" t="s">
+      <c r="G267" s="43" t="s">
         <v>1099</v>
       </c>
-      <c r="H267" s="47" t="s">
+      <c r="H267" s="45" t="s">
         <v>2015</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A268" s="48" t="s">
+      <c r="A268" s="11" t="s">
         <v>1782</v>
       </c>
       <c r="B268" s="26" t="s">
         <v>2016</v>
       </c>
-      <c r="C268" s="49" t="s">
+      <c r="C268" s="46" t="s">
         <v>1803</v>
       </c>
       <c r="D268" s="33" t="s">
@@ -21353,13 +21381,13 @@
       </c>
     </row>
     <row r="269" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A269" s="44" t="s">
+      <c r="A269" s="43" t="s">
         <v>1783</v>
       </c>
       <c r="B269" s="23" t="s">
         <v>1449</v>
       </c>
-      <c r="C269" s="45" t="s">
+      <c r="C269" s="44" t="s">
         <v>1804</v>
       </c>
       <c r="D269" s="34" t="s">
@@ -21375,13 +21403,13 @@
       <c r="H269" s="27"/>
     </row>
     <row r="270" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A270" s="48" t="s">
+      <c r="A270" s="11" t="s">
         <v>1784</v>
       </c>
       <c r="B270" s="26" t="s">
         <v>2017</v>
       </c>
-      <c r="C270" s="49" t="s">
+      <c r="C270" s="46" t="s">
         <v>1805</v>
       </c>
       <c r="D270" s="33" t="s">
@@ -21401,13 +21429,13 @@
       </c>
     </row>
     <row r="271" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A271" s="44" t="s">
+      <c r="A271" s="43" t="s">
         <v>1785</v>
       </c>
       <c r="B271" s="23" t="s">
         <v>2018</v>
       </c>
-      <c r="C271" s="45" t="s">
+      <c r="C271" s="44" t="s">
         <v>1806</v>
       </c>
       <c r="D271" s="34" t="s">
@@ -21423,13 +21451,13 @@
       <c r="H271" s="27"/>
     </row>
     <row r="272" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A272" s="44" t="s">
+      <c r="A272" s="43" t="s">
         <v>1786</v>
       </c>
       <c r="B272" s="23" t="s">
         <v>2019</v>
       </c>
-      <c r="C272" s="45" t="s">
+      <c r="C272" s="44" t="s">
         <v>1807</v>
       </c>
       <c r="D272" s="34" t="s">
@@ -21445,13 +21473,13 @@
       <c r="H272" s="27"/>
     </row>
     <row r="273" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A273" s="48" t="s">
+      <c r="A273" s="11" t="s">
         <v>1787</v>
       </c>
       <c r="B273" s="26" t="s">
         <v>2020</v>
       </c>
-      <c r="C273" s="49" t="s">
+      <c r="C273" s="46" t="s">
         <v>1808</v>
       </c>
       <c r="D273" s="33" t="s">
@@ -21467,13 +21495,13 @@
       <c r="H273" s="27"/>
     </row>
     <row r="274" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A274" s="44" t="s">
+      <c r="A274" s="43" t="s">
         <v>1788</v>
       </c>
       <c r="B274" s="23" t="s">
         <v>2021</v>
       </c>
-      <c r="C274" s="50"/>
+      <c r="C274" s="47"/>
       <c r="D274" s="32"/>
       <c r="E274" s="8"/>
       <c r="F274" s="30"/>
@@ -21481,13 +21509,13 @@
       <c r="H274" s="27"/>
     </row>
     <row r="275" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A275" s="44" t="s">
+      <c r="A275" s="43" t="s">
         <v>1789</v>
       </c>
       <c r="B275" s="23" t="s">
         <v>2022</v>
       </c>
-      <c r="C275" s="45" t="s">
+      <c r="C275" s="44" t="s">
         <v>1809</v>
       </c>
       <c r="D275" s="34" t="s">
@@ -21503,13 +21531,13 @@
       <c r="H275" s="27"/>
     </row>
     <row r="276" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A276" s="48" t="s">
+      <c r="A276" s="11" t="s">
         <v>1790</v>
       </c>
       <c r="B276" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C276" s="49" t="s">
+      <c r="C276" s="46" t="s">
         <v>1810</v>
       </c>
       <c r="D276" s="33" t="s">
@@ -21529,13 +21557,13 @@
       </c>
     </row>
     <row r="277" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A277" s="44" t="s">
+      <c r="A277" s="43" t="s">
         <v>1791</v>
       </c>
       <c r="B277" s="23" t="s">
         <v>2023</v>
       </c>
-      <c r="C277" s="50"/>
+      <c r="C277" s="47"/>
       <c r="D277" s="32"/>
       <c r="E277" s="8"/>
       <c r="F277" s="30"/>
@@ -21543,13 +21571,13 @@
       <c r="H277" s="27"/>
     </row>
     <row r="278" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A278" s="48" t="s">
+      <c r="A278" s="11" t="s">
         <v>1792</v>
       </c>
       <c r="B278" s="26" t="s">
         <v>2024</v>
       </c>
-      <c r="C278" s="49" t="s">
+      <c r="C278" s="46" t="s">
         <v>1811</v>
       </c>
       <c r="D278" s="33" t="s">
@@ -21583,13 +21611,13 @@
       <c r="H279" s="27"/>
     </row>
     <row r="280" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A280" s="44" t="s">
+      <c r="A280" s="43" t="s">
         <v>1794</v>
       </c>
       <c r="B280" s="23" t="s">
         <v>2026</v>
       </c>
-      <c r="C280" s="45" t="s">
+      <c r="C280" s="44" t="s">
         <v>1813</v>
       </c>
       <c r="D280" s="34" t="s">
@@ -21605,782 +21633,782 @@
       <c r="H280" s="27"/>
     </row>
     <row r="281" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A281" s="51" t="s">
+      <c r="A281" s="13" t="s">
         <v>1456</v>
       </c>
-      <c r="B281" s="52" t="s">
+      <c r="B281" s="48" t="s">
         <v>1454</v>
       </c>
-      <c r="C281" s="53" t="s">
+      <c r="C281" s="49" t="s">
         <v>1455</v>
       </c>
-      <c r="D281" s="54" t="s">
+      <c r="D281" s="50" t="s">
         <v>1454</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>1591</v>
       </c>
-      <c r="F281" s="52" t="s">
+      <c r="F281" s="48" t="s">
         <v>1454</v>
       </c>
       <c r="G281" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="H281" s="55" t="s">
+      <c r="H281" s="51" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A282" s="61" t="s">
+      <c r="A282" s="57" t="s">
         <v>2111</v>
       </c>
-      <c r="B282" s="62" t="s">
+      <c r="B282" s="58" t="s">
         <v>2112</v>
       </c>
-      <c r="C282" s="63" t="s">
+      <c r="C282" s="59" t="s">
         <v>2111</v>
       </c>
-      <c r="D282" s="64" t="s">
+      <c r="D282" s="60" t="s">
         <v>2112</v>
       </c>
-      <c r="E282" s="65" t="s">
+      <c r="E282" s="61" t="s">
         <v>2111</v>
       </c>
-      <c r="F282" s="62" t="s">
+      <c r="F282" s="58" t="s">
         <v>2112</v>
       </c>
-      <c r="G282" s="66" t="s">
+      <c r="G282" s="62" t="s">
         <v>2111</v>
       </c>
-      <c r="H282" s="67" t="s">
+      <c r="H282" s="63" t="s">
         <v>2112</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A283" s="68" t="s">
+      <c r="A283" s="64" t="s">
         <v>2113</v>
       </c>
-      <c r="B283" s="69" t="s">
+      <c r="B283" s="65" t="s">
         <v>2114</v>
       </c>
-      <c r="C283" s="70" t="s">
+      <c r="C283" s="66" t="s">
         <v>2113</v>
       </c>
-      <c r="D283" s="71" t="s">
+      <c r="D283" s="67" t="s">
         <v>2114</v>
       </c>
-      <c r="E283" s="72" t="s">
+      <c r="E283" s="68" t="s">
         <v>2113</v>
       </c>
-      <c r="F283" s="69" t="s">
+      <c r="F283" s="65" t="s">
         <v>2114</v>
       </c>
-      <c r="G283" s="73" t="s">
+      <c r="G283" s="69" t="s">
         <v>2113</v>
       </c>
-      <c r="H283" s="74" t="s">
+      <c r="H283" s="70" t="s">
         <v>2114</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A284" s="68" t="s">
+      <c r="A284" s="64" t="s">
         <v>2115</v>
       </c>
-      <c r="B284" s="69" t="s">
+      <c r="B284" s="65" t="s">
         <v>2116</v>
       </c>
-      <c r="C284" s="70" t="s">
+      <c r="C284" s="66" t="s">
         <v>2115</v>
       </c>
-      <c r="D284" s="71" t="s">
+      <c r="D284" s="67" t="s">
         <v>2116</v>
       </c>
-      <c r="E284" s="72" t="s">
+      <c r="E284" s="68" t="s">
         <v>2115</v>
       </c>
-      <c r="F284" s="69" t="s">
+      <c r="F284" s="65" t="s">
         <v>2116</v>
       </c>
-      <c r="G284" s="73" t="s">
+      <c r="G284" s="69" t="s">
         <v>2115</v>
       </c>
-      <c r="H284" s="74" t="s">
+      <c r="H284" s="70" t="s">
         <v>2116</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A285" s="68" t="s">
+      <c r="A285" s="64" t="s">
         <v>2117</v>
       </c>
-      <c r="B285" s="69" t="s">
+      <c r="B285" s="65" t="s">
         <v>2118</v>
       </c>
-      <c r="C285" s="70" t="s">
+      <c r="C285" s="66" t="s">
         <v>2117</v>
       </c>
-      <c r="D285" s="71" t="s">
+      <c r="D285" s="67" t="s">
         <v>2118</v>
       </c>
-      <c r="E285" s="72" t="s">
+      <c r="E285" s="68" t="s">
         <v>2117</v>
       </c>
-      <c r="F285" s="69" t="s">
+      <c r="F285" s="65" t="s">
         <v>2118</v>
       </c>
-      <c r="G285" s="73" t="s">
+      <c r="G285" s="69" t="s">
         <v>2117</v>
       </c>
-      <c r="H285" s="74" t="s">
+      <c r="H285" s="70" t="s">
         <v>2118</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A286" s="68" t="s">
+      <c r="A286" s="64" t="s">
         <v>2119</v>
       </c>
-      <c r="B286" s="69" t="s">
+      <c r="B286" s="65" t="s">
         <v>2120</v>
       </c>
-      <c r="C286" s="70" t="s">
+      <c r="C286" s="66" t="s">
         <v>2119</v>
       </c>
-      <c r="D286" s="71" t="s">
+      <c r="D286" s="67" t="s">
         <v>2120</v>
       </c>
-      <c r="E286" s="72" t="s">
+      <c r="E286" s="68" t="s">
         <v>2119</v>
       </c>
-      <c r="F286" s="69" t="s">
+      <c r="F286" s="65" t="s">
         <v>2120</v>
       </c>
-      <c r="G286" s="73" t="s">
+      <c r="G286" s="69" t="s">
         <v>2119</v>
       </c>
-      <c r="H286" s="74" t="s">
+      <c r="H286" s="70" t="s">
         <v>2120</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A287" s="68" t="s">
+      <c r="A287" s="64" t="s">
         <v>2121</v>
       </c>
-      <c r="B287" s="69" t="s">
+      <c r="B287" s="65" t="s">
         <v>2122</v>
       </c>
-      <c r="C287" s="70" t="s">
+      <c r="C287" s="66" t="s">
         <v>2121</v>
       </c>
-      <c r="D287" s="71" t="s">
+      <c r="D287" s="67" t="s">
         <v>2122</v>
       </c>
-      <c r="E287" s="72" t="s">
+      <c r="E287" s="68" t="s">
         <v>2121</v>
       </c>
-      <c r="F287" s="69" t="s">
+      <c r="F287" s="65" t="s">
         <v>2122</v>
       </c>
-      <c r="G287" s="73" t="s">
+      <c r="G287" s="69" t="s">
         <v>2121</v>
       </c>
-      <c r="H287" s="74" t="s">
+      <c r="H287" s="70" t="s">
         <v>2122</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A288" s="68" t="s">
+      <c r="A288" s="64" t="s">
         <v>2123</v>
       </c>
-      <c r="B288" s="69" t="s">
+      <c r="B288" s="65" t="s">
         <v>2124</v>
       </c>
-      <c r="C288" s="70" t="s">
+      <c r="C288" s="66" t="s">
         <v>2123</v>
       </c>
-      <c r="D288" s="71" t="s">
+      <c r="D288" s="67" t="s">
         <v>2124</v>
       </c>
-      <c r="E288" s="72" t="s">
+      <c r="E288" s="68" t="s">
         <v>2123</v>
       </c>
-      <c r="F288" s="69" t="s">
+      <c r="F288" s="65" t="s">
         <v>2124</v>
       </c>
-      <c r="G288" s="73" t="s">
+      <c r="G288" s="69" t="s">
         <v>2123</v>
       </c>
-      <c r="H288" s="74" t="s">
+      <c r="H288" s="70" t="s">
         <v>2124</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A289" s="68" t="s">
+      <c r="A289" s="64" t="s">
         <v>2125</v>
       </c>
-      <c r="B289" s="69" t="s">
+      <c r="B289" s="65" t="s">
         <v>2126</v>
       </c>
-      <c r="C289" s="70" t="s">
+      <c r="C289" s="66" t="s">
         <v>2125</v>
       </c>
-      <c r="D289" s="71" t="s">
+      <c r="D289" s="67" t="s">
         <v>2126</v>
       </c>
-      <c r="E289" s="72" t="s">
+      <c r="E289" s="68" t="s">
         <v>2125</v>
       </c>
-      <c r="F289" s="69" t="s">
+      <c r="F289" s="65" t="s">
         <v>2126</v>
       </c>
-      <c r="G289" s="73" t="s">
+      <c r="G289" s="69" t="s">
         <v>2125</v>
       </c>
-      <c r="H289" s="74" t="s">
+      <c r="H289" s="70" t="s">
         <v>2126</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A290" s="68" t="s">
+      <c r="A290" s="64" t="s">
         <v>2127</v>
       </c>
-      <c r="B290" s="69" t="s">
+      <c r="B290" s="65" t="s">
         <v>2128</v>
       </c>
-      <c r="C290" s="70" t="s">
+      <c r="C290" s="66" t="s">
         <v>2127</v>
       </c>
-      <c r="D290" s="71" t="s">
+      <c r="D290" s="67" t="s">
         <v>2128</v>
       </c>
-      <c r="E290" s="72" t="s">
+      <c r="E290" s="68" t="s">
         <v>2127</v>
       </c>
-      <c r="F290" s="69" t="s">
+      <c r="F290" s="65" t="s">
         <v>2128</v>
       </c>
-      <c r="G290" s="73" t="s">
+      <c r="G290" s="69" t="s">
         <v>2127</v>
       </c>
-      <c r="H290" s="74" t="s">
+      <c r="H290" s="70" t="s">
         <v>2128</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A291" s="68" t="s">
+      <c r="A291" s="64" t="s">
         <v>2129</v>
       </c>
-      <c r="B291" s="69" t="s">
+      <c r="B291" s="65" t="s">
         <v>2130</v>
       </c>
-      <c r="C291" s="70" t="s">
+      <c r="C291" s="66" t="s">
         <v>2129</v>
       </c>
-      <c r="D291" s="71" t="s">
+      <c r="D291" s="67" t="s">
         <v>2130</v>
       </c>
-      <c r="E291" s="72" t="s">
+      <c r="E291" s="68" t="s">
         <v>2129</v>
       </c>
-      <c r="F291" s="69" t="s">
+      <c r="F291" s="65" t="s">
         <v>2130</v>
       </c>
-      <c r="G291" s="73" t="s">
+      <c r="G291" s="69" t="s">
         <v>2129</v>
       </c>
-      <c r="H291" s="74" t="s">
+      <c r="H291" s="70" t="s">
         <v>2130</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A292" s="68" t="s">
+      <c r="A292" s="64" t="s">
         <v>2131</v>
       </c>
-      <c r="B292" s="69" t="s">
+      <c r="B292" s="65" t="s">
         <v>2196</v>
       </c>
-      <c r="C292" s="70" t="s">
+      <c r="C292" s="66" t="s">
         <v>2131</v>
       </c>
-      <c r="D292" s="71" t="s">
+      <c r="D292" s="67" t="s">
         <v>2195</v>
       </c>
-      <c r="E292" s="72" t="s">
+      <c r="E292" s="68" t="s">
         <v>2131</v>
       </c>
-      <c r="F292" s="69" t="s">
+      <c r="F292" s="65" t="s">
         <v>2195</v>
       </c>
-      <c r="G292" s="73" t="s">
+      <c r="G292" s="69" t="s">
         <v>2131</v>
       </c>
-      <c r="H292" s="74" t="s">
+      <c r="H292" s="70" t="s">
         <v>2195</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A293" s="68" t="s">
+      <c r="A293" s="64" t="s">
         <v>2176</v>
       </c>
-      <c r="B293" s="69" t="s">
+      <c r="B293" s="65" t="s">
         <v>2178</v>
       </c>
-      <c r="C293" s="70" t="s">
+      <c r="C293" s="66" t="s">
         <v>2175</v>
       </c>
-      <c r="D293" s="71" t="s">
+      <c r="D293" s="67" t="s">
         <v>2177</v>
       </c>
-      <c r="E293" s="72" t="s">
+      <c r="E293" s="68" t="s">
         <v>2175</v>
       </c>
-      <c r="F293" s="69" t="s">
+      <c r="F293" s="65" t="s">
         <v>2177</v>
       </c>
-      <c r="G293" s="73" t="s">
+      <c r="G293" s="69" t="s">
         <v>2175</v>
       </c>
-      <c r="H293" s="74" t="s">
+      <c r="H293" s="70" t="s">
         <v>2177</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A294" s="68" t="s">
+      <c r="A294" s="64" t="s">
         <v>2180</v>
       </c>
-      <c r="B294" s="69" t="s">
+      <c r="B294" s="65" t="s">
         <v>2182</v>
       </c>
-      <c r="C294" s="70" t="s">
+      <c r="C294" s="66" t="s">
         <v>2179</v>
       </c>
-      <c r="D294" s="71" t="s">
+      <c r="D294" s="67" t="s">
         <v>2181</v>
       </c>
-      <c r="E294" s="72" t="s">
+      <c r="E294" s="68" t="s">
         <v>2179</v>
       </c>
-      <c r="F294" s="69" t="s">
+      <c r="F294" s="65" t="s">
         <v>2181</v>
       </c>
-      <c r="G294" s="73" t="s">
+      <c r="G294" s="69" t="s">
         <v>2179</v>
       </c>
-      <c r="H294" s="74" t="s">
+      <c r="H294" s="70" t="s">
         <v>2181</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A295" s="68" t="s">
+      <c r="A295" s="64" t="s">
         <v>2183</v>
       </c>
-      <c r="B295" s="69" t="s">
+      <c r="B295" s="65" t="s">
         <v>2185</v>
       </c>
-      <c r="C295" s="70" t="s">
+      <c r="C295" s="66" t="s">
         <v>2133</v>
       </c>
-      <c r="D295" s="71" t="s">
+      <c r="D295" s="67" t="s">
         <v>2184</v>
       </c>
-      <c r="E295" s="72" t="s">
+      <c r="E295" s="68" t="s">
         <v>2133</v>
       </c>
-      <c r="F295" s="69" t="s">
+      <c r="F295" s="65" t="s">
         <v>2184</v>
       </c>
-      <c r="G295" s="73" t="s">
+      <c r="G295" s="69" t="s">
         <v>2133</v>
       </c>
-      <c r="H295" s="74" t="s">
+      <c r="H295" s="70" t="s">
         <v>2184</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A296" s="68" t="s">
+      <c r="A296" s="64" t="s">
         <v>2135</v>
       </c>
-      <c r="B296" s="69" t="s">
+      <c r="B296" s="65" t="s">
         <v>2187</v>
       </c>
-      <c r="C296" s="70" t="s">
+      <c r="C296" s="66" t="s">
         <v>2135</v>
       </c>
-      <c r="D296" s="71" t="s">
+      <c r="D296" s="67" t="s">
         <v>2186</v>
       </c>
-      <c r="E296" s="72" t="s">
+      <c r="E296" s="68" t="s">
         <v>2135</v>
       </c>
-      <c r="F296" s="69" t="s">
+      <c r="F296" s="65" t="s">
         <v>2186</v>
       </c>
-      <c r="G296" s="73" t="s">
+      <c r="G296" s="69" t="s">
         <v>2135</v>
       </c>
-      <c r="H296" s="74" t="s">
+      <c r="H296" s="70" t="s">
         <v>2186</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A297" s="68" t="s">
+      <c r="A297" s="64" t="s">
         <v>2139</v>
       </c>
-      <c r="B297" s="69" t="s">
+      <c r="B297" s="65" t="s">
         <v>2140</v>
       </c>
-      <c r="C297" s="70" t="s">
+      <c r="C297" s="66" t="s">
         <v>2139</v>
       </c>
-      <c r="D297" s="71" t="s">
+      <c r="D297" s="67" t="s">
         <v>2140</v>
       </c>
-      <c r="E297" s="72" t="s">
+      <c r="E297" s="68" t="s">
         <v>2139</v>
       </c>
-      <c r="F297" s="69" t="s">
+      <c r="F297" s="65" t="s">
         <v>2140</v>
       </c>
-      <c r="G297" s="73" t="s">
+      <c r="G297" s="69" t="s">
         <v>2139</v>
       </c>
-      <c r="H297" s="74" t="s">
+      <c r="H297" s="70" t="s">
         <v>2140</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A298" s="68" t="s">
+      <c r="A298" s="64" t="s">
         <v>2141</v>
       </c>
-      <c r="B298" s="69" t="s">
+      <c r="B298" s="65" t="s">
         <v>2142</v>
       </c>
-      <c r="C298" s="70" t="s">
+      <c r="C298" s="66" t="s">
         <v>2141</v>
       </c>
-      <c r="D298" s="71" t="s">
+      <c r="D298" s="67" t="s">
         <v>2142</v>
       </c>
-      <c r="E298" s="72" t="s">
+      <c r="E298" s="68" t="s">
         <v>2141</v>
       </c>
-      <c r="F298" s="69" t="s">
+      <c r="F298" s="65" t="s">
         <v>2142</v>
       </c>
-      <c r="G298" s="73" t="s">
+      <c r="G298" s="69" t="s">
         <v>2141</v>
       </c>
-      <c r="H298" s="74" t="s">
+      <c r="H298" s="70" t="s">
         <v>2142</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A299" s="68" t="s">
+      <c r="A299" s="64" t="s">
         <v>2189</v>
       </c>
-      <c r="B299" s="69" t="s">
+      <c r="B299" s="65" t="s">
         <v>2191</v>
       </c>
-      <c r="C299" s="70" t="s">
+      <c r="C299" s="66" t="s">
         <v>2188</v>
       </c>
-      <c r="D299" s="71" t="s">
+      <c r="D299" s="67" t="s">
         <v>2190</v>
       </c>
-      <c r="E299" s="72" t="s">
+      <c r="E299" s="68" t="s">
         <v>2188</v>
       </c>
-      <c r="F299" s="69" t="s">
+      <c r="F299" s="65" t="s">
         <v>2190</v>
       </c>
-      <c r="G299" s="73" t="s">
+      <c r="G299" s="69" t="s">
         <v>2188</v>
       </c>
-      <c r="H299" s="74" t="s">
+      <c r="H299" s="70" t="s">
         <v>2190</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A300" s="68" t="s">
+      <c r="A300" s="64" t="s">
         <v>2143</v>
       </c>
-      <c r="B300" s="69" t="s">
+      <c r="B300" s="65" t="s">
         <v>2192</v>
       </c>
-      <c r="C300" s="70" t="s">
+      <c r="C300" s="66" t="s">
         <v>2143</v>
       </c>
-      <c r="D300" s="71" t="s">
+      <c r="D300" s="67" t="s">
         <v>2192</v>
       </c>
-      <c r="E300" s="72" t="s">
+      <c r="E300" s="68" t="s">
         <v>2143</v>
       </c>
-      <c r="F300" s="69" t="s">
+      <c r="F300" s="65" t="s">
         <v>2192</v>
       </c>
-      <c r="G300" s="73" t="s">
+      <c r="G300" s="69" t="s">
         <v>2143</v>
       </c>
-      <c r="H300" s="74" t="s">
+      <c r="H300" s="70" t="s">
         <v>2192</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A301" s="75" t="s">
+      <c r="A301" s="71" t="s">
         <v>2194</v>
       </c>
-      <c r="B301" s="76" t="s">
+      <c r="B301" s="72" t="s">
         <v>2198</v>
       </c>
-      <c r="C301" s="77" t="s">
+      <c r="C301" s="73" t="s">
         <v>2193</v>
       </c>
-      <c r="D301" s="78" t="s">
+      <c r="D301" s="74" t="s">
         <v>2197</v>
       </c>
-      <c r="E301" s="79" t="s">
+      <c r="E301" s="75" t="s">
         <v>2193</v>
       </c>
-      <c r="F301" s="76" t="s">
+      <c r="F301" s="72" t="s">
         <v>2197</v>
       </c>
-      <c r="G301" s="80" t="s">
+      <c r="G301" s="76" t="s">
         <v>2193</v>
       </c>
-      <c r="H301" s="81" t="s">
+      <c r="H301" s="77" t="s">
         <v>2197</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A302" s="68" t="s">
+      <c r="A302" s="64" t="s">
         <v>2145</v>
       </c>
-      <c r="B302" s="69" t="s">
+      <c r="B302" s="65" t="s">
         <v>2146</v>
       </c>
-      <c r="C302" s="70" t="s">
+      <c r="C302" s="66" t="s">
         <v>2145</v>
       </c>
-      <c r="D302" s="71" t="s">
+      <c r="D302" s="67" t="s">
         <v>2146</v>
       </c>
-      <c r="E302" s="72" t="s">
+      <c r="E302" s="68" t="s">
         <v>2145</v>
       </c>
-      <c r="F302" s="69" t="s">
+      <c r="F302" s="65" t="s">
         <v>2146</v>
       </c>
-      <c r="G302" s="73" t="s">
+      <c r="G302" s="69" t="s">
         <v>2145</v>
       </c>
-      <c r="H302" s="74" t="s">
+      <c r="H302" s="70" t="s">
         <v>2146</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A303" s="68" t="s">
+      <c r="A303" s="64" t="s">
         <v>2147</v>
       </c>
-      <c r="B303" s="69" t="s">
+      <c r="B303" s="65" t="s">
         <v>2148</v>
       </c>
-      <c r="C303" s="70" t="s">
+      <c r="C303" s="66" t="s">
         <v>2147</v>
       </c>
-      <c r="D303" s="71" t="s">
+      <c r="D303" s="67" t="s">
         <v>2148</v>
       </c>
-      <c r="E303" s="72" t="s">
+      <c r="E303" s="68" t="s">
         <v>2147</v>
       </c>
-      <c r="F303" s="69" t="s">
+      <c r="F303" s="65" t="s">
         <v>2148</v>
       </c>
-      <c r="G303" s="73" t="s">
+      <c r="G303" s="69" t="s">
         <v>2147</v>
       </c>
-      <c r="H303" s="74" t="s">
+      <c r="H303" s="70" t="s">
         <v>2148</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A304" s="68" t="s">
+      <c r="A304" s="64" t="s">
         <v>2149</v>
       </c>
-      <c r="B304" s="69" t="s">
+      <c r="B304" s="65" t="s">
         <v>2150</v>
       </c>
-      <c r="C304" s="70" t="s">
+      <c r="C304" s="66" t="s">
         <v>2149</v>
       </c>
-      <c r="D304" s="71" t="s">
+      <c r="D304" s="67" t="s">
         <v>2150</v>
       </c>
-      <c r="E304" s="72" t="s">
+      <c r="E304" s="68" t="s">
         <v>2149</v>
       </c>
-      <c r="F304" s="69" t="s">
+      <c r="F304" s="65" t="s">
         <v>2150</v>
       </c>
-      <c r="G304" s="73" t="s">
+      <c r="G304" s="69" t="s">
         <v>2149</v>
       </c>
-      <c r="H304" s="74" t="s">
+      <c r="H304" s="70" t="s">
         <v>2150</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A305" s="68" t="s">
+      <c r="A305" s="64" t="s">
         <v>2151</v>
       </c>
-      <c r="B305" s="69" t="s">
+      <c r="B305" s="65" t="s">
         <v>2152</v>
       </c>
-      <c r="C305" s="70" t="s">
+      <c r="C305" s="66" t="s">
         <v>2151</v>
       </c>
-      <c r="D305" s="71" t="s">
+      <c r="D305" s="67" t="s">
         <v>2152</v>
       </c>
-      <c r="E305" s="72" t="s">
+      <c r="E305" s="68" t="s">
         <v>2151</v>
       </c>
-      <c r="F305" s="69" t="s">
+      <c r="F305" s="65" t="s">
         <v>2152</v>
       </c>
-      <c r="G305" s="73" t="s">
+      <c r="G305" s="69" t="s">
         <v>2151</v>
       </c>
-      <c r="H305" s="74" t="s">
+      <c r="H305" s="70" t="s">
         <v>2152</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A306" s="68" t="s">
+      <c r="A306" s="64" t="s">
         <v>2153</v>
       </c>
-      <c r="B306" s="69" t="s">
+      <c r="B306" s="65" t="s">
         <v>2154</v>
       </c>
-      <c r="C306" s="70" t="s">
+      <c r="C306" s="66" t="s">
         <v>2153</v>
       </c>
-      <c r="D306" s="71" t="s">
+      <c r="D306" s="67" t="s">
         <v>2154</v>
       </c>
-      <c r="E306" s="72" t="s">
+      <c r="E306" s="68" t="s">
         <v>2153</v>
       </c>
-      <c r="F306" s="69" t="s">
+      <c r="F306" s="65" t="s">
         <v>2154</v>
       </c>
-      <c r="G306" s="73" t="s">
+      <c r="G306" s="69" t="s">
         <v>2153</v>
       </c>
-      <c r="H306" s="74" t="s">
+      <c r="H306" s="70" t="s">
         <v>2154</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A307" s="68" t="s">
+      <c r="A307" s="64" t="s">
         <v>2155</v>
       </c>
-      <c r="B307" s="69" t="s">
+      <c r="B307" s="65" t="s">
         <v>2156</v>
       </c>
-      <c r="C307" s="70" t="s">
+      <c r="C307" s="66" t="s">
         <v>2155</v>
       </c>
-      <c r="D307" s="71" t="s">
+      <c r="D307" s="67" t="s">
         <v>2156</v>
       </c>
-      <c r="E307" s="72" t="s">
+      <c r="E307" s="68" t="s">
         <v>2155</v>
       </c>
-      <c r="F307" s="69" t="s">
+      <c r="F307" s="65" t="s">
         <v>2156</v>
       </c>
-      <c r="G307" s="73" t="s">
+      <c r="G307" s="69" t="s">
         <v>2155</v>
       </c>
-      <c r="H307" s="74" t="s">
+      <c r="H307" s="70" t="s">
         <v>2156</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A308" s="68" t="s">
+      <c r="A308" s="64" t="s">
         <v>2157</v>
       </c>
-      <c r="B308" s="69" t="s">
+      <c r="B308" s="65" t="s">
         <v>2174</v>
       </c>
-      <c r="C308" s="70" t="s">
+      <c r="C308" s="66" t="s">
         <v>2157</v>
       </c>
-      <c r="D308" s="71" t="s">
+      <c r="D308" s="67" t="s">
         <v>2158</v>
       </c>
-      <c r="E308" s="72" t="s">
+      <c r="E308" s="68" t="s">
         <v>2157</v>
       </c>
-      <c r="F308" s="69" t="s">
+      <c r="F308" s="65" t="s">
         <v>2158</v>
       </c>
-      <c r="G308" s="73" t="s">
+      <c r="G308" s="69" t="s">
         <v>2157</v>
       </c>
-      <c r="H308" s="74" t="s">
+      <c r="H308" s="70" t="s">
         <v>2158</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A309" s="68" t="s">
+      <c r="A309" s="64" t="s">
         <v>2159</v>
       </c>
-      <c r="B309" s="69" t="s">
+      <c r="B309" s="65" t="s">
         <v>2160</v>
       </c>
-      <c r="C309" s="70" t="s">
+      <c r="C309" s="66" t="s">
         <v>2159</v>
       </c>
-      <c r="D309" s="71" t="s">
+      <c r="D309" s="67" t="s">
         <v>2160</v>
       </c>
-      <c r="E309" s="72" t="s">
+      <c r="E309" s="68" t="s">
         <v>2159</v>
       </c>
-      <c r="F309" s="69" t="s">
+      <c r="F309" s="65" t="s">
         <v>2160</v>
       </c>
-      <c r="G309" s="73" t="s">
+      <c r="G309" s="69" t="s">
         <v>2159</v>
       </c>
-      <c r="H309" s="74" t="s">
+      <c r="H309" s="70" t="s">
         <v>2160</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A310" s="89" t="s">
+      <c r="A310" s="85" t="s">
         <v>2161</v>
       </c>
-      <c r="B310" s="90" t="s">
+      <c r="B310" s="86" t="s">
         <v>2162</v>
       </c>
-      <c r="C310" s="91" t="s">
+      <c r="C310" s="87" t="s">
         <v>2161</v>
       </c>
-      <c r="D310" s="92" t="s">
+      <c r="D310" s="88" t="s">
         <v>2162</v>
       </c>
-      <c r="E310" s="93" t="s">
+      <c r="E310" s="89" t="s">
         <v>2161</v>
       </c>
-      <c r="F310" s="90" t="s">
+      <c r="F310" s="86" t="s">
         <v>2162</v>
       </c>
-      <c r="G310" s="94" t="s">
+      <c r="G310" s="90" t="s">
         <v>2161</v>
       </c>
-      <c r="H310" s="95" t="s">
+      <c r="H310" s="91" t="s">
         <v>2162</v>
       </c>
     </row>
